--- a/data/word_list_1.xlsx
+++ b/data/word_list_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -420,25 +400,19 @@
           <t>hund</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
         <v>59.64</v>
       </c>
-      <c r="D2">
-        <v>1.4</v>
-      </c>
-      <c r="F2">
-        <v>1.4</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="E2">
+        <v>1.84</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>dog</t>
         </is>
-      </c>
-      <c r="I2">
-        <v>1.84</v>
-      </c>
-      <c r="J2">
-        <v>3.17</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +424,7 @@
       <c r="C3">
         <v>1.67</v>
       </c>
-      <c r="F3">
-        <v>1.67</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>dad</t>
         </is>
@@ -465,16 +436,13 @@
           <t>strumpf</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>1.75</v>
+      </c>
+      <c r="D4">
         <v>11.32</v>
       </c>
-      <c r="D4">
-        <v>1.75</v>
-      </c>
-      <c r="F4">
-        <v>1.75</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>stocking</t>
         </is>
@@ -486,13 +454,10 @@
           <t>lätzchen</t>
         </is>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>1.8</v>
       </c>
-      <c r="F5">
-        <v>1.8</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>pinafore</t>
         </is>
@@ -504,16 +469,13 @@
           <t>schlitten</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <v>1.8</v>
+      </c>
+      <c r="D6">
         <v>6.25</v>
       </c>
-      <c r="D6">
-        <v>1.8</v>
-      </c>
-      <c r="F6">
-        <v>1.8</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>sleigh</t>
         </is>
@@ -528,10 +490,7 @@
       <c r="C7">
         <v>1.84</v>
       </c>
-      <c r="F7">
-        <v>1.84</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>mum</t>
         </is>
@@ -543,16 +502,13 @@
           <t>nachthemd</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="C8">
+        <v>1.9</v>
+      </c>
+      <c r="D8">
         <v>2.84</v>
       </c>
-      <c r="D8">
-        <v>1.9</v>
-      </c>
-      <c r="F8">
-        <v>1.9</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>nightgown</t>
         </is>
@@ -564,16 +520,13 @@
           <t>dreirad</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>1.9</v>
+      </c>
+      <c r="D9">
         <v>0.27</v>
       </c>
-      <c r="D9">
-        <v>1.9</v>
-      </c>
-      <c r="F9">
-        <v>1.9</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>tricycle</t>
         </is>
@@ -585,25 +538,19 @@
           <t>kartoffel</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>1.95</v>
+      </c>
+      <c r="D10">
         <v>23.81</v>
       </c>
-      <c r="D10">
-        <v>1.95</v>
-      </c>
-      <c r="F10">
-        <v>1.95</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="E10">
+        <v>6.21</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>potato</t>
         </is>
-      </c>
-      <c r="I10">
-        <v>6.21</v>
-      </c>
-      <c r="J10">
-        <v>4.83</v>
       </c>
     </row>
     <row r="11">
@@ -612,37 +559,28 @@
           <t>mütze</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1.95</v>
+      </c>
+      <c r="D11">
         <v>14.01</v>
       </c>
-      <c r="D11">
-        <v>1.95</v>
-      </c>
       <c r="E11">
-        <v>2.29</v>
-      </c>
-      <c r="F11">
-        <v>1.95</v>
+        <v>5.71</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>cap</t>
-        </is>
-      </c>
-      <c r="I11">
-        <v>5.71</v>
-      </c>
-      <c r="J11">
-        <v>5.11</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -652,37 +590,28 @@
           <t>schlange</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>13.96</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
       <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
+        <v>2.09</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
           <t>snake</t>
-        </is>
-      </c>
-      <c r="I12">
-        <v>2.09</v>
-      </c>
-      <c r="J12">
-        <v>5.02</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -692,16 +621,13 @@
           <t>schlafanzug</t>
         </is>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>0.98</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pyjamas</t>
         </is>
@@ -713,16 +639,13 @@
           <t>bäcker</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>4.59</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>baker</t>
         </is>
@@ -734,22 +657,19 @@
           <t>marienkäfer</t>
         </is>
       </c>
-      <c r="B15">
+      <c r="C15">
+        <v>2.05</v>
+      </c>
+      <c r="D15">
         <v>0.31</v>
       </c>
-      <c r="D15">
-        <v>2.05</v>
-      </c>
-      <c r="F15">
-        <v>2.05</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="E15">
+        <v>3.21</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>ladybird</t>
         </is>
-      </c>
-      <c r="I15">
-        <v>3.21</v>
       </c>
     </row>
     <row r="16">
@@ -758,25 +678,19 @@
           <t>schnecke</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="C16">
+        <v>2.05</v>
+      </c>
+      <c r="D16">
         <v>9.289999999999999</v>
       </c>
-      <c r="D16">
-        <v>2.05</v>
-      </c>
-      <c r="F16">
-        <v>2.05</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="E16">
+        <v>3.71</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>snail</t>
         </is>
-      </c>
-      <c r="I16">
-        <v>3.71</v>
-      </c>
-      <c r="J16">
-        <v>5.45</v>
       </c>
     </row>
     <row r="17">
@@ -785,16 +699,13 @@
           <t>wolf</t>
         </is>
       </c>
-      <c r="B17">
+      <c r="C17">
+        <v>2.05</v>
+      </c>
+      <c r="D17">
         <v>19.33</v>
       </c>
-      <c r="D17">
-        <v>2.05</v>
-      </c>
-      <c r="F17">
-        <v>2.05</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>wolf</t>
         </is>
@@ -806,16 +717,13 @@
           <t>rodeln</t>
         </is>
       </c>
-      <c r="B18">
+      <c r="C18">
+        <v>2.05</v>
+      </c>
+      <c r="D18">
         <v>0.33</v>
       </c>
-      <c r="D18">
-        <v>2.05</v>
-      </c>
-      <c r="F18">
-        <v>2.05</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>tobogganing</t>
         </is>
@@ -827,25 +735,22 @@
           <t>hören</t>
         </is>
       </c>
-      <c r="E19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C19">
         <v>2.1</v>
       </c>
-      <c r="F19">
-        <v>2.1</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>listen</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -855,16 +760,13 @@
           <t>unterhose</t>
         </is>
       </c>
-      <c r="B20">
+      <c r="C20">
+        <v>2.1</v>
+      </c>
+      <c r="D20">
         <v>2.36</v>
       </c>
-      <c r="D20">
-        <v>2.1</v>
-      </c>
-      <c r="F20">
-        <v>2.1</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>underpants</t>
         </is>
@@ -876,28 +778,19 @@
           <t>bett</t>
         </is>
       </c>
-      <c r="B21">
-        <v>102.68</v>
-      </c>
       <c r="C21">
         <v>2.15</v>
       </c>
       <c r="D21">
-        <v>1.25</v>
-      </c>
-      <c r="F21">
-        <v>2.15</v>
-      </c>
-      <c r="H21" t="inlineStr">
+        <v>102.68</v>
+      </c>
+      <c r="E21">
+        <v>1.84</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>bed</t>
         </is>
-      </c>
-      <c r="I21">
-        <v>1.84</v>
-      </c>
-      <c r="J21">
-        <v>3.01</v>
       </c>
     </row>
     <row r="22">
@@ -906,25 +799,19 @@
           <t>schmetterling</t>
         </is>
       </c>
-      <c r="B22">
+      <c r="C22">
+        <v>2.15</v>
+      </c>
+      <c r="D22">
         <v>7.35</v>
       </c>
-      <c r="D22">
-        <v>2.15</v>
-      </c>
-      <c r="F22">
-        <v>2.15</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="E22">
+        <v>1.95</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>butterfly</t>
         </is>
-      </c>
-      <c r="I22">
-        <v>1.95</v>
-      </c>
-      <c r="J22">
-        <v>3.67</v>
       </c>
     </row>
     <row r="23">
@@ -933,16 +820,13 @@
           <t>spinat</t>
         </is>
       </c>
-      <c r="B23">
+      <c r="C23">
+        <v>2.15</v>
+      </c>
+      <c r="D23">
         <v>2.62</v>
       </c>
-      <c r="D23">
-        <v>2.15</v>
-      </c>
-      <c r="F23">
-        <v>2.15</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>spinach</t>
         </is>
@@ -957,19 +841,13 @@
       <c r="C24">
         <v>2.18</v>
       </c>
-      <c r="F24">
-        <v>2.18</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="E24">
+        <v>4.71</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>nose</t>
         </is>
-      </c>
-      <c r="I24">
-        <v>4.71</v>
-      </c>
-      <c r="J24">
-        <v>3.49</v>
       </c>
     </row>
     <row r="25">
@@ -978,16 +856,13 @@
           <t>uhu</t>
         </is>
       </c>
-      <c r="B25">
+      <c r="C25">
+        <v>2.2</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>2.2</v>
-      </c>
-      <c r="F25">
-        <v>2.2</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>eagle owl</t>
         </is>
@@ -999,16 +874,13 @@
           <t>tuch</t>
         </is>
       </c>
-      <c r="B26">
+      <c r="C26">
+        <v>2.2</v>
+      </c>
+      <c r="D26">
         <v>21.32</v>
       </c>
-      <c r="D26">
-        <v>2.2</v>
-      </c>
-      <c r="F26">
-        <v>2.2</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>scarf</t>
         </is>
@@ -1020,16 +892,13 @@
           <t>unterhemd</t>
         </is>
       </c>
-      <c r="B27">
+      <c r="C27">
+        <v>2.2</v>
+      </c>
+      <c r="D27">
         <v>0.6</v>
       </c>
-      <c r="D27">
-        <v>2.2</v>
-      </c>
-      <c r="F27">
-        <v>2.2</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>vest</t>
         </is>
@@ -1041,16 +910,13 @@
           <t>feuerwehrmann</t>
         </is>
       </c>
-      <c r="B28">
+      <c r="C28">
+        <v>2.2</v>
+      </c>
+      <c r="D28">
         <v>0.97</v>
       </c>
-      <c r="D28">
-        <v>2.2</v>
-      </c>
-      <c r="F28">
-        <v>2.2</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>fireman</t>
         </is>
@@ -1065,10 +931,7 @@
       <c r="C29">
         <v>2.21</v>
       </c>
-      <c r="F29">
-        <v>2.21</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>belly</t>
         </is>
@@ -1080,25 +943,19 @@
           <t>mohrrübe</t>
         </is>
       </c>
-      <c r="B30">
+      <c r="C30">
+        <v>2.25</v>
+      </c>
+      <c r="D30">
         <v>1.5</v>
       </c>
-      <c r="D30">
-        <v>2.25</v>
-      </c>
-      <c r="F30">
-        <v>2.25</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="E30">
+        <v>2.09</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>carrot</t>
         </is>
-      </c>
-      <c r="I30">
-        <v>2.09</v>
-      </c>
-      <c r="J30">
-        <v>3.05</v>
       </c>
     </row>
     <row r="31">
@@ -1107,25 +964,19 @@
           <t>handschuh</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="C31">
+        <v>2.25</v>
+      </c>
+      <c r="D31">
         <v>10.96</v>
       </c>
-      <c r="D31">
-        <v>2.25</v>
-      </c>
-      <c r="F31">
-        <v>2.25</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="E31">
+        <v>3.71</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>glove</t>
         </is>
-      </c>
-      <c r="I31">
-        <v>3.71</v>
-      </c>
-      <c r="J31">
-        <v>4.76</v>
       </c>
     </row>
     <row r="32">
@@ -1134,16 +985,13 @@
           <t>schwimmen</t>
         </is>
       </c>
-      <c r="B32">
+      <c r="C32">
+        <v>2.25</v>
+      </c>
+      <c r="D32">
         <v>3.48</v>
       </c>
-      <c r="D32">
-        <v>2.25</v>
-      </c>
-      <c r="F32">
-        <v>2.25</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>swimming</t>
         </is>
@@ -1158,10 +1006,7 @@
       <c r="C33">
         <v>2.26</v>
       </c>
-      <c r="F33">
-        <v>2.26</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>mouth</t>
         </is>
@@ -1173,25 +1018,22 @@
           <t>lachen</t>
         </is>
       </c>
-      <c r="E34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C34">
         <v>2.29</v>
       </c>
-      <c r="F34">
-        <v>2.29</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
           <t>laugh</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1201,19 +1043,13 @@
           <t>hose</t>
         </is>
       </c>
-      <c r="B35">
-        <v>22.22</v>
-      </c>
       <c r="C35">
         <v>2.29</v>
       </c>
       <c r="D35">
-        <v>1.8</v>
-      </c>
-      <c r="F35">
-        <v>2.29</v>
-      </c>
-      <c r="H35" t="inlineStr">
+        <v>22.22</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>trousers</t>
         </is>
@@ -1225,16 +1061,13 @@
           <t>reh</t>
         </is>
       </c>
-      <c r="B36">
+      <c r="C36">
+        <v>2.3</v>
+      </c>
+      <c r="D36">
         <v>3.01</v>
       </c>
-      <c r="D36">
-        <v>2.3</v>
-      </c>
-      <c r="F36">
-        <v>2.3</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>roe deer</t>
         </is>
@@ -1249,10 +1082,7 @@
       <c r="C37">
         <v>2.31</v>
       </c>
-      <c r="F37">
-        <v>2.31</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>child</t>
         </is>
@@ -1267,19 +1097,13 @@
       <c r="C38">
         <v>2.33</v>
       </c>
-      <c r="F38">
-        <v>2.33</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="E38">
+        <v>1.95</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>hand</t>
         </is>
-      </c>
-      <c r="I38">
-        <v>1.95</v>
-      </c>
-      <c r="J38">
-        <v>2.94</v>
       </c>
     </row>
     <row r="39">
@@ -1291,10 +1115,7 @@
       <c r="C39">
         <v>2.35</v>
       </c>
-      <c r="F39">
-        <v>2.35</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>doll</t>
         </is>
@@ -1306,25 +1127,19 @@
           <t>salat</t>
         </is>
       </c>
-      <c r="B40">
+      <c r="C40">
+        <v>2.35</v>
+      </c>
+      <c r="D40">
         <v>8.48</v>
       </c>
-      <c r="D40">
-        <v>2.35</v>
-      </c>
-      <c r="F40">
-        <v>2.35</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="E40">
+        <v>6.21</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>lettuce</t>
         </is>
-      </c>
-      <c r="I40">
-        <v>6.21</v>
-      </c>
-      <c r="J40">
-        <v>4.96</v>
       </c>
     </row>
     <row r="41">
@@ -1333,25 +1148,19 @@
           <t>schal</t>
         </is>
       </c>
-      <c r="B41">
+      <c r="C41">
+        <v>2.35</v>
+      </c>
+      <c r="D41">
         <v>3.55</v>
       </c>
-      <c r="D41">
-        <v>2.35</v>
-      </c>
-      <c r="F41">
-        <v>2.35</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="E41">
+        <v>11.67</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>shawl</t>
         </is>
-      </c>
-      <c r="I41">
-        <v>11.67</v>
-      </c>
-      <c r="J41">
-        <v>8.59</v>
       </c>
     </row>
     <row r="42">
@@ -1360,16 +1169,13 @@
           <t>küchentisch</t>
         </is>
       </c>
-      <c r="B42">
+      <c r="C42">
+        <v>2.35</v>
+      </c>
+      <c r="D42">
         <v>2.23</v>
       </c>
-      <c r="D42">
-        <v>2.35</v>
-      </c>
-      <c r="F42">
-        <v>2.35</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>kitchen table</t>
         </is>
@@ -1384,10 +1190,7 @@
       <c r="C43">
         <v>2.4</v>
       </c>
-      <c r="F43">
-        <v>2.4</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>father</t>
         </is>
@@ -1399,16 +1202,13 @@
           <t>taube</t>
         </is>
       </c>
-      <c r="B44">
+      <c r="C44">
+        <v>2.4</v>
+      </c>
+      <c r="D44">
         <v>8.73</v>
       </c>
-      <c r="D44">
-        <v>2.4</v>
-      </c>
-      <c r="F44">
-        <v>2.4</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>dove</t>
         </is>
@@ -1420,16 +1220,13 @@
           <t>badeanzug</t>
         </is>
       </c>
-      <c r="B45">
+      <c r="C45">
+        <v>2.4</v>
+      </c>
+      <c r="D45">
         <v>0.96</v>
       </c>
-      <c r="D45">
-        <v>2.4</v>
-      </c>
-      <c r="F45">
-        <v>2.4</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>swimsuit</t>
         </is>
@@ -1441,19 +1238,16 @@
           <t>lkw</t>
         </is>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>2.4</v>
       </c>
-      <c r="F46">
-        <v>2.4</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="E46">
+        <v>3.71</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>lorry</t>
         </is>
-      </c>
-      <c r="I46">
-        <v>3.71</v>
       </c>
     </row>
     <row r="47">
@@ -1462,16 +1256,13 @@
           <t>koch</t>
         </is>
       </c>
-      <c r="B47">
+      <c r="C47">
+        <v>2.4</v>
+      </c>
+      <c r="D47">
         <v>12.63</v>
       </c>
-      <c r="D47">
-        <v>2.4</v>
-      </c>
-      <c r="F47">
-        <v>2.4</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>cook</t>
         </is>
@@ -1483,16 +1274,13 @@
           <t>regenwurm</t>
         </is>
       </c>
-      <c r="B48">
+      <c r="C48">
+        <v>2.45</v>
+      </c>
+      <c r="D48">
         <v>2.07</v>
       </c>
-      <c r="D48">
-        <v>2.45</v>
-      </c>
-      <c r="F48">
-        <v>2.45</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>earthworm</t>
         </is>
@@ -1504,16 +1292,13 @@
           <t>radfahren</t>
         </is>
       </c>
-      <c r="B49">
+      <c r="C49">
+        <v>2.45</v>
+      </c>
+      <c r="D49">
         <v>1.34</v>
       </c>
-      <c r="D49">
-        <v>2.45</v>
-      </c>
-      <c r="F49">
-        <v>2.45</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>cycling</t>
         </is>
@@ -1528,19 +1313,13 @@
       <c r="C50">
         <v>2.47</v>
       </c>
-      <c r="F50">
-        <v>2.47</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="E50">
+        <v>1.95</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>ball</t>
         </is>
-      </c>
-      <c r="I50">
-        <v>1.95</v>
-      </c>
-      <c r="J50">
-        <v>3.04</v>
       </c>
     </row>
     <row r="51">
@@ -1552,10 +1331,7 @@
       <c r="C51">
         <v>2.5</v>
       </c>
-      <c r="F51">
-        <v>2.5</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>mash</t>
         </is>
@@ -1567,28 +1343,19 @@
           <t>kuh</t>
         </is>
       </c>
-      <c r="B52">
-        <v>15.32</v>
-      </c>
       <c r="C52">
         <v>2.5</v>
       </c>
       <c r="D52">
-        <v>1.7</v>
-      </c>
-      <c r="F52">
-        <v>2.5</v>
-      </c>
-      <c r="H52" t="inlineStr">
+        <v>15.32</v>
+      </c>
+      <c r="E52">
+        <v>1.95</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>cow</t>
         </is>
-      </c>
-      <c r="I52">
-        <v>1.95</v>
-      </c>
-      <c r="J52">
-        <v>3.51</v>
       </c>
     </row>
     <row r="53">
@@ -1600,10 +1367,7 @@
       <c r="C53">
         <v>2.5</v>
       </c>
-      <c r="F53">
-        <v>2.5</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>name</t>
         </is>
@@ -1615,28 +1379,19 @@
           <t>schaf</t>
         </is>
       </c>
-      <c r="B54">
-        <v>10.38</v>
-      </c>
       <c r="C54">
         <v>2.5</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>2.5</v>
-      </c>
-      <c r="H54" t="inlineStr">
+        <v>10.38</v>
+      </c>
+      <c r="E54">
+        <v>3.71</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>sheep</t>
         </is>
-      </c>
-      <c r="I54">
-        <v>3.71</v>
-      </c>
-      <c r="J54">
-        <v>4.18</v>
       </c>
     </row>
     <row r="55">
@@ -1648,10 +1403,7 @@
       <c r="C55">
         <v>2.5</v>
       </c>
-      <c r="F55">
-        <v>2.5</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
@@ -1666,10 +1418,7 @@
       <c r="C56">
         <v>2.5</v>
       </c>
-      <c r="F56">
-        <v>2.5</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>chocolate</t>
         </is>
@@ -1681,16 +1430,13 @@
           <t>maulwurf</t>
         </is>
       </c>
-      <c r="B57">
+      <c r="C57">
+        <v>2.5</v>
+      </c>
+      <c r="D57">
         <v>2.32</v>
       </c>
-      <c r="D57">
-        <v>2.5</v>
-      </c>
-      <c r="F57">
-        <v>2.5</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>mole</t>
         </is>
@@ -1702,16 +1448,13 @@
           <t>muschel</t>
         </is>
       </c>
-      <c r="B58">
+      <c r="C58">
+        <v>2.5</v>
+      </c>
+      <c r="D58">
         <v>7.15</v>
       </c>
-      <c r="D58">
-        <v>2.5</v>
-      </c>
-      <c r="F58">
-        <v>2.5</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>sea shell</t>
         </is>
@@ -1723,25 +1466,19 @@
           <t>kleid</t>
         </is>
       </c>
-      <c r="B59">
+      <c r="C59">
+        <v>2.5</v>
+      </c>
+      <c r="D59">
         <v>47.85</v>
       </c>
-      <c r="D59">
-        <v>2.5</v>
-      </c>
-      <c r="F59">
-        <v>2.5</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="E59">
+        <v>3.21</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>dress</t>
         </is>
-      </c>
-      <c r="I59">
-        <v>3.21</v>
-      </c>
-      <c r="J59">
-        <v>4.23</v>
       </c>
     </row>
     <row r="60">
@@ -1750,16 +1487,13 @@
           <t>jäger</t>
         </is>
       </c>
-      <c r="B60">
+      <c r="C60">
+        <v>2.5</v>
+      </c>
+      <c r="D60">
         <v>17.85</v>
       </c>
-      <c r="D60">
-        <v>2.5</v>
-      </c>
-      <c r="F60">
-        <v>2.5</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>hunter</t>
         </is>
@@ -1771,16 +1505,13 @@
           <t>kindergärtner</t>
         </is>
       </c>
-      <c r="B61">
+      <c r="C61">
+        <v>2.5</v>
+      </c>
+      <c r="D61">
         <v>0.03</v>
       </c>
-      <c r="D61">
-        <v>2.5</v>
-      </c>
-      <c r="F61">
-        <v>2.5</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>nursery-school teacher</t>
         </is>
@@ -1795,19 +1526,13 @@
       <c r="C62">
         <v>2.54</v>
       </c>
-      <c r="F62">
-        <v>2.54</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="E62">
+        <v>3.21</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>arm</t>
         </is>
-      </c>
-      <c r="I62">
-        <v>3.21</v>
-      </c>
-      <c r="J62">
-        <v>3.5</v>
       </c>
     </row>
     <row r="63">
@@ -1819,19 +1544,13 @@
       <c r="C63">
         <v>2.55</v>
       </c>
-      <c r="F63">
-        <v>2.55</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="E63">
+        <v>3.21</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>thumb</t>
         </is>
-      </c>
-      <c r="I63">
-        <v>3.21</v>
-      </c>
-      <c r="J63">
-        <v>4.09</v>
       </c>
     </row>
     <row r="64">
@@ -1843,10 +1562,7 @@
       <c r="C64">
         <v>2.55</v>
       </c>
-      <c r="F64">
-        <v>2.55</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>good</t>
         </is>
@@ -1858,16 +1574,13 @@
           <t>spatz</t>
         </is>
       </c>
-      <c r="B65">
+      <c r="C65">
+        <v>2.55</v>
+      </c>
+      <c r="D65">
         <v>2.62</v>
       </c>
-      <c r="D65">
-        <v>2.55</v>
-      </c>
-      <c r="F65">
-        <v>2.55</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>sparrow</t>
         </is>
@@ -1879,28 +1592,22 @@
           <t>essen</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C66">
         <v>2.57</v>
       </c>
-      <c r="E66">
-        <v>1.95</v>
-      </c>
-      <c r="F66">
-        <v>2.57</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
           <t>eat</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1913,10 +1620,7 @@
       <c r="C67">
         <v>2.58</v>
       </c>
-      <c r="F67">
-        <v>2.58</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>see</t>
         </is>
@@ -1931,19 +1635,13 @@
       <c r="C68">
         <v>2.58</v>
       </c>
-      <c r="F68">
-        <v>2.58</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="E68">
+        <v>1.95</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>sun</t>
         </is>
-      </c>
-      <c r="I68">
-        <v>1.95</v>
-      </c>
-      <c r="J68">
-        <v>3.45</v>
       </c>
     </row>
     <row r="69">
@@ -1955,10 +1653,7 @@
       <c r="C69">
         <v>2.58</v>
       </c>
-      <c r="F69">
-        <v>2.58</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>stone</t>
         </is>
@@ -1973,10 +1668,7 @@
       <c r="C70">
         <v>2.58</v>
       </c>
-      <c r="F70">
-        <v>2.58</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>water</t>
         </is>
@@ -1988,37 +1680,28 @@
           <t>eichhörnchen</t>
         </is>
       </c>
-      <c r="B71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>2.6</v>
+      </c>
+      <c r="D71">
         <v>2.48</v>
       </c>
-      <c r="D71">
-        <v>2.6</v>
-      </c>
       <c r="E71">
-        <v>3.43</v>
-      </c>
-      <c r="F71">
-        <v>2.6</v>
+        <v>2.09</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
           <t>squirrel</t>
-        </is>
-      </c>
-      <c r="I71">
-        <v>2.09</v>
-      </c>
-      <c r="J71">
-        <v>5.33</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2028,25 +1711,19 @@
           <t>schildkröte</t>
         </is>
       </c>
-      <c r="B72">
+      <c r="C72">
+        <v>2.6</v>
+      </c>
+      <c r="D72">
         <v>2.84</v>
       </c>
-      <c r="D72">
-        <v>2.6</v>
-      </c>
-      <c r="F72">
-        <v>2.6</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="E72">
+        <v>3.21</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>tortoise</t>
         </is>
-      </c>
-      <c r="I72">
-        <v>3.21</v>
-      </c>
-      <c r="J72">
-        <v>6.69</v>
       </c>
     </row>
     <row r="73">
@@ -2055,16 +1732,13 @@
           <t>weintraube</t>
         </is>
       </c>
-      <c r="B73">
+      <c r="C73">
+        <v>2.6</v>
+      </c>
+      <c r="D73">
         <v>1.14</v>
       </c>
-      <c r="D73">
-        <v>2.6</v>
-      </c>
-      <c r="F73">
-        <v>2.6</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>grape</t>
         </is>
@@ -2076,16 +1750,13 @@
           <t>pullover</t>
         </is>
       </c>
-      <c r="B74">
+      <c r="C74">
+        <v>2.6</v>
+      </c>
+      <c r="D74">
         <v>3.88</v>
       </c>
-      <c r="D74">
-        <v>2.6</v>
-      </c>
-      <c r="F74">
-        <v>2.6</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>sweater</t>
         </is>
@@ -2097,16 +1768,13 @@
           <t>spaten</t>
         </is>
       </c>
-      <c r="B75">
+      <c r="C75">
+        <v>2.6</v>
+      </c>
+      <c r="D75">
         <v>3.96</v>
       </c>
-      <c r="D75">
-        <v>2.6</v>
-      </c>
-      <c r="F75">
-        <v>2.6</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>spade</t>
         </is>
@@ -2118,16 +1786,13 @@
           <t>fischer</t>
         </is>
       </c>
-      <c r="B76">
+      <c r="C76">
+        <v>2.6</v>
+      </c>
+      <c r="D76">
         <v>28.78</v>
       </c>
-      <c r="D76">
-        <v>2.6</v>
-      </c>
-      <c r="F76">
-        <v>2.6</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>fisherman</t>
         </is>
@@ -2139,25 +1804,22 @@
           <t>kochen</t>
         </is>
       </c>
-      <c r="E77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C77">
         <v>2.62</v>
       </c>
-      <c r="F77">
-        <v>2.62</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
           <t>boil</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2170,10 +1832,7 @@
       <c r="C78">
         <v>2.63</v>
       </c>
-      <c r="F78">
-        <v>2.63</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>kind</t>
         </is>
@@ -2188,10 +1847,7 @@
       <c r="C79">
         <v>2.63</v>
       </c>
-      <c r="F79">
-        <v>2.63</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>sing</t>
         </is>
@@ -2206,10 +1862,7 @@
       <c r="C80">
         <v>2.64</v>
       </c>
-      <c r="F80">
-        <v>2.64</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>drink</t>
         </is>
@@ -2224,19 +1877,13 @@
       <c r="C81">
         <v>2.65</v>
       </c>
-      <c r="F81">
-        <v>2.65</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="E81">
+        <v>1.95</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>bath</t>
         </is>
-      </c>
-      <c r="I81">
-        <v>1.95</v>
-      </c>
-      <c r="J81">
-        <v>3.48</v>
       </c>
     </row>
     <row r="82">
@@ -2248,10 +1895,7 @@
       <c r="C82">
         <v>2.65</v>
       </c>
-      <c r="F82">
-        <v>2.65</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>egg</t>
         </is>
@@ -2263,16 +1907,13 @@
           <t>specht</t>
         </is>
       </c>
-      <c r="B83">
+      <c r="C83">
+        <v>2.65</v>
+      </c>
+      <c r="D83">
         <v>2.24</v>
       </c>
-      <c r="D83">
-        <v>2.65</v>
-      </c>
-      <c r="F83">
-        <v>2.65</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>woodpecker</t>
         </is>
@@ -2284,16 +1925,13 @@
           <t>pflaume</t>
         </is>
       </c>
-      <c r="B84">
+      <c r="C84">
+        <v>2.65</v>
+      </c>
+      <c r="D84">
         <v>2.44</v>
       </c>
-      <c r="D84">
-        <v>2.65</v>
-      </c>
-      <c r="F84">
-        <v>2.65</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>plum</t>
         </is>
@@ -2305,16 +1943,13 @@
           <t>tanzen</t>
         </is>
       </c>
-      <c r="B85">
+      <c r="C85">
+        <v>2.65</v>
+      </c>
+      <c r="D85">
         <v>3.83</v>
       </c>
-      <c r="D85">
-        <v>2.65</v>
-      </c>
-      <c r="F85">
-        <v>2.65</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>dancing</t>
         </is>
@@ -2326,16 +1961,13 @@
           <t>friseur</t>
         </is>
       </c>
-      <c r="B86">
+      <c r="C86">
+        <v>2.65</v>
+      </c>
+      <c r="D86">
         <v>4.72</v>
       </c>
-      <c r="D86">
-        <v>2.65</v>
-      </c>
-      <c r="F86">
-        <v>2.65</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>hairdresser</t>
         </is>
@@ -2347,16 +1979,13 @@
           <t>verkäufer</t>
         </is>
       </c>
-      <c r="B87">
+      <c r="C87">
+        <v>2.65</v>
+      </c>
+      <c r="D87">
         <v>8.619999999999999</v>
       </c>
-      <c r="D87">
-        <v>2.65</v>
-      </c>
-      <c r="F87">
-        <v>2.65</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>salesman</t>
         </is>
@@ -2371,10 +2000,7 @@
       <c r="C88">
         <v>2.67</v>
       </c>
-      <c r="F88">
-        <v>2.67</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>wash</t>
         </is>
@@ -2386,34 +2012,25 @@
           <t>auge</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C89">
         <v>2.69</v>
       </c>
       <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>2.69</v>
+        <v>3.71</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
           <t>eye</t>
-        </is>
-      </c>
-      <c r="I89">
-        <v>3.71</v>
-      </c>
-      <c r="J89">
-        <v>3.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2426,10 +2043,7 @@
       <c r="C90">
         <v>2.7</v>
       </c>
-      <c r="F90">
-        <v>2.7</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>thirst</t>
         </is>
@@ -2444,19 +2058,13 @@
       <c r="C91">
         <v>2.7</v>
       </c>
-      <c r="F91">
-        <v>2.7</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="E91">
+        <v>1.84</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>house</t>
         </is>
-      </c>
-      <c r="I91">
-        <v>1.84</v>
-      </c>
-      <c r="J91">
-        <v>3.24</v>
       </c>
     </row>
     <row r="92">
@@ -2465,16 +2073,13 @@
           <t>brombeere</t>
         </is>
       </c>
-      <c r="B92">
+      <c r="C92">
+        <v>2.7</v>
+      </c>
+      <c r="D92">
         <v>0.87</v>
       </c>
-      <c r="D92">
-        <v>2.7</v>
-      </c>
-      <c r="F92">
-        <v>2.7</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>blackberry</t>
         </is>
@@ -2486,16 +2091,13 @@
           <t>kopftuch</t>
         </is>
       </c>
-      <c r="B93">
+      <c r="C93">
+        <v>2.7</v>
+      </c>
+      <c r="D93">
         <v>3.02</v>
       </c>
-      <c r="D93">
-        <v>2.7</v>
-      </c>
-      <c r="F93">
-        <v>2.7</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>headscarf</t>
         </is>
@@ -2507,16 +2109,13 @@
           <t>fliegen</t>
         </is>
       </c>
-      <c r="B94">
+      <c r="C94">
+        <v>2.7</v>
+      </c>
+      <c r="D94">
         <v>0.29</v>
       </c>
-      <c r="D94">
-        <v>2.7</v>
-      </c>
-      <c r="F94">
-        <v>2.7</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
@@ -2528,40 +2127,28 @@
           <t>apfel</t>
         </is>
       </c>
-      <c r="B95">
-        <v>13.15</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C95">
         <v>2.71</v>
       </c>
       <c r="D95">
-        <v>1.75</v>
+        <v>13.15</v>
       </c>
       <c r="E95">
-        <v>1.81</v>
-      </c>
-      <c r="F95">
-        <v>2.71</v>
+        <v>1.84</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
           <t>apple</t>
-        </is>
-      </c>
-      <c r="I95">
-        <v>1.84</v>
-      </c>
-      <c r="J95">
-        <v>3.78</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2574,10 +2161,7 @@
       <c r="C96">
         <v>2.71</v>
       </c>
-      <c r="F96">
-        <v>2.71</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>digger</t>
         </is>
@@ -2592,19 +2176,13 @@
       <c r="C97">
         <v>2.71</v>
       </c>
-      <c r="F97">
-        <v>2.71</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="E97">
+        <v>3.21</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>leg</t>
         </is>
-      </c>
-      <c r="I97">
-        <v>3.21</v>
-      </c>
-      <c r="J97">
-        <v>2.95</v>
       </c>
     </row>
     <row r="98">
@@ -2616,19 +2194,13 @@
       <c r="C98">
         <v>2.71</v>
       </c>
-      <c r="F98">
-        <v>2.71</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="E98">
+        <v>6.21</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>lamp</t>
         </is>
-      </c>
-      <c r="I98">
-        <v>6.21</v>
-      </c>
-      <c r="J98">
-        <v>4.98</v>
       </c>
     </row>
     <row r="99">
@@ -2640,19 +2212,13 @@
       <c r="C99">
         <v>2.71</v>
       </c>
-      <c r="F99">
-        <v>2.71</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="E99">
+        <v>2.09</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>moon</t>
         </is>
-      </c>
-      <c r="I99">
-        <v>2.09</v>
-      </c>
-      <c r="J99">
-        <v>4.42</v>
       </c>
     </row>
     <row r="100">
@@ -2664,10 +2230,7 @@
       <c r="C100">
         <v>2.71</v>
       </c>
-      <c r="F100">
-        <v>2.71</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>red</t>
         </is>
@@ -2682,10 +2245,7 @@
       <c r="C101">
         <v>2.71</v>
       </c>
-      <c r="F101">
-        <v>2.71</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>speak</t>
         </is>
@@ -2697,25 +2257,22 @@
           <t>kämmen</t>
         </is>
       </c>
-      <c r="E102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C102">
         <v>2.71</v>
       </c>
-      <c r="F102">
-        <v>2.71</v>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
           <t>comb</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2728,10 +2285,7 @@
       <c r="C103">
         <v>2.72</v>
       </c>
-      <c r="F103">
-        <v>2.72</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>play</t>
         </is>
@@ -2746,19 +2300,13 @@
       <c r="C104">
         <v>2.74</v>
       </c>
-      <c r="F104">
-        <v>2.74</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="E104">
+        <v>1.95</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>fork</t>
         </is>
-      </c>
-      <c r="I104">
-        <v>1.95</v>
-      </c>
-      <c r="J104">
-        <v>4.04</v>
       </c>
     </row>
     <row r="105">
@@ -2770,10 +2318,7 @@
       <c r="C105">
         <v>2.74</v>
       </c>
-      <c r="F105">
-        <v>2.74</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>teddy</t>
         </is>
@@ -2788,10 +2333,7 @@
       <c r="C106">
         <v>2.75</v>
       </c>
-      <c r="F106">
-        <v>2.75</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>one</t>
         </is>
@@ -2803,34 +2345,25 @@
           <t>schaukeln</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C107">
         <v>2.75</v>
       </c>
       <c r="E107">
-        <v>2.05</v>
-      </c>
-      <c r="F107">
-        <v>2.75</v>
+        <v>4.21</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
           <t>swing</t>
-        </is>
-      </c>
-      <c r="I107">
-        <v>4.21</v>
-      </c>
-      <c r="J107">
-        <v>4.54</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2840,34 +2373,25 @@
           <t>schaukeln</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C108">
         <v>2.75</v>
       </c>
       <c r="E108">
-        <v>2.19</v>
-      </c>
-      <c r="F108">
-        <v>2.75</v>
+        <v>4.21</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
           <t>swing</t>
-        </is>
-      </c>
-      <c r="I108">
-        <v>4.21</v>
-      </c>
-      <c r="J108">
-        <v>4.54</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -2877,16 +2401,13 @@
           <t>meerschweinchen</t>
         </is>
       </c>
-      <c r="B109">
+      <c r="C109">
+        <v>2.75</v>
+      </c>
+      <c r="D109">
         <v>1.23</v>
       </c>
-      <c r="D109">
-        <v>2.75</v>
-      </c>
-      <c r="F109">
-        <v>2.75</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>guinea pig</t>
         </is>
@@ -2898,16 +2419,13 @@
           <t>eisbär</t>
         </is>
       </c>
-      <c r="B110">
+      <c r="C110">
+        <v>2.75</v>
+      </c>
+      <c r="D110">
         <v>0.58</v>
       </c>
-      <c r="D110">
-        <v>2.75</v>
-      </c>
-      <c r="F110">
-        <v>2.75</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>polar bear</t>
         </is>
@@ -2919,25 +2437,19 @@
           <t>wal</t>
         </is>
       </c>
-      <c r="B111">
+      <c r="C111">
+        <v>2.75</v>
+      </c>
+      <c r="D111">
         <v>2.19</v>
       </c>
-      <c r="D111">
-        <v>2.75</v>
-      </c>
-      <c r="F111">
-        <v>2.75</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="E111">
+        <v>4.71</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>whale</t>
         </is>
-      </c>
-      <c r="I111">
-        <v>4.71</v>
-      </c>
-      <c r="J111">
-        <v>5.72</v>
       </c>
     </row>
     <row r="112">
@@ -2946,16 +2458,13 @@
           <t>krähe</t>
         </is>
       </c>
-      <c r="B112">
+      <c r="C112">
+        <v>2.75</v>
+      </c>
+      <c r="D112">
         <v>3.16</v>
       </c>
-      <c r="D112">
-        <v>2.75</v>
-      </c>
-      <c r="F112">
-        <v>2.75</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>crow</t>
         </is>
@@ -2967,16 +2476,13 @@
           <t>bauarbeiter</t>
         </is>
       </c>
-      <c r="B113">
+      <c r="C113">
+        <v>2.75</v>
+      </c>
+      <c r="D113">
         <v>2.16</v>
       </c>
-      <c r="D113">
-        <v>2.75</v>
-      </c>
-      <c r="F113">
-        <v>2.75</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>builder</t>
         </is>
@@ -2988,16 +2494,13 @@
           <t>gärtner</t>
         </is>
       </c>
-      <c r="B114">
+      <c r="C114">
+        <v>2.75</v>
+      </c>
+      <c r="D114">
         <v>6.61</v>
       </c>
-      <c r="D114">
-        <v>2.75</v>
-      </c>
-      <c r="F114">
-        <v>2.75</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>gardener</t>
         </is>
@@ -3009,16 +2512,13 @@
           <t>müllmann</t>
         </is>
       </c>
-      <c r="B115">
+      <c r="C115">
+        <v>2.75</v>
+      </c>
+      <c r="D115">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D115">
-        <v>2.75</v>
-      </c>
-      <c r="F115">
-        <v>2.75</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>refuse collector</t>
         </is>
@@ -3033,10 +2533,7 @@
       <c r="C116">
         <v>2.76</v>
       </c>
-      <c r="F116">
-        <v>2.76</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
@@ -3048,40 +2545,28 @@
           <t>fisch</t>
         </is>
       </c>
-      <c r="B117">
-        <v>42.66</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C117">
         <v>2.76</v>
       </c>
       <c r="D117">
-        <v>1.5</v>
+        <v>42.66</v>
       </c>
       <c r="E117">
-        <v>2.48</v>
-      </c>
-      <c r="F117">
-        <v>2.76</v>
+        <v>1.84</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
           <t>fish</t>
-        </is>
-      </c>
-      <c r="I117">
-        <v>1.84</v>
-      </c>
-      <c r="J117">
-        <v>4.29</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3091,40 +2576,28 @@
           <t>fisch</t>
         </is>
       </c>
-      <c r="B118">
-        <v>42.66</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="C118">
         <v>2.76</v>
       </c>
       <c r="D118">
-        <v>1.5</v>
+        <v>42.66</v>
       </c>
       <c r="E118">
-        <v>4.62</v>
-      </c>
-      <c r="F118">
-        <v>2.76</v>
+        <v>1.84</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
           <t>fish</t>
-        </is>
-      </c>
-      <c r="I118">
-        <v>1.84</v>
-      </c>
-      <c r="J118">
-        <v>4.29</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -3137,19 +2610,13 @@
       <c r="C119">
         <v>2.77</v>
       </c>
-      <c r="F119">
-        <v>2.77</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="E119">
+        <v>1.95</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>finger</t>
         </is>
-      </c>
-      <c r="I119">
-        <v>1.95</v>
-      </c>
-      <c r="J119">
-        <v>3.52</v>
       </c>
     </row>
     <row r="120">
@@ -3158,28 +2625,19 @@
           <t>jacke</t>
         </is>
       </c>
-      <c r="B120">
-        <v>10.55</v>
-      </c>
       <c r="C120">
         <v>2.77</v>
       </c>
       <c r="D120">
-        <v>1.95</v>
-      </c>
-      <c r="F120">
-        <v>2.77</v>
-      </c>
-      <c r="H120" t="inlineStr">
+        <v>10.55</v>
+      </c>
+      <c r="E120">
+        <v>4.71</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>jacket</t>
         </is>
-      </c>
-      <c r="I120">
-        <v>4.71</v>
-      </c>
-      <c r="J120">
-        <v>4.58</v>
       </c>
     </row>
     <row r="121">
@@ -3191,10 +2649,7 @@
       <c r="C121">
         <v>2.78</v>
       </c>
-      <c r="F121">
-        <v>2.78</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
@@ -3206,19 +2661,13 @@
           <t>hase</t>
         </is>
       </c>
-      <c r="B122">
-        <v>8.220000000000001</v>
-      </c>
       <c r="C122">
         <v>2.79</v>
       </c>
       <c r="D122">
-        <v>1.7</v>
-      </c>
-      <c r="F122">
-        <v>2.79</v>
-      </c>
-      <c r="H122" t="inlineStr">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>hare</t>
         </is>
@@ -3233,19 +2682,13 @@
       <c r="C123">
         <v>2.79</v>
       </c>
-      <c r="F123">
-        <v>2.79</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="E123">
+        <v>1.84</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>spoon</t>
         </is>
-      </c>
-      <c r="I123">
-        <v>1.84</v>
-      </c>
-      <c r="J123">
-        <v>3.32</v>
       </c>
     </row>
     <row r="124">
@@ -3257,10 +2700,7 @@
       <c r="C124">
         <v>2.79</v>
       </c>
-      <c r="F124">
-        <v>2.79</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>black</t>
         </is>
@@ -3272,19 +2712,13 @@
           <t>igel</t>
         </is>
       </c>
-      <c r="B125">
-        <v>2.16</v>
-      </c>
       <c r="C125">
         <v>2.8</v>
       </c>
       <c r="D125">
-        <v>1.95</v>
-      </c>
-      <c r="F125">
-        <v>2.8</v>
-      </c>
-      <c r="H125" t="inlineStr">
+        <v>2.16</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>hedgehog</t>
         </is>
@@ -3299,10 +2733,7 @@
       <c r="C126">
         <v>2.8</v>
       </c>
-      <c r="F126">
-        <v>2.8</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>man</t>
         </is>
@@ -3317,10 +2748,7 @@
       <c r="C127">
         <v>2.8</v>
       </c>
-      <c r="F127">
-        <v>2.8</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>mother</t>
         </is>
@@ -3335,10 +2763,7 @@
       <c r="C128">
         <v>2.8</v>
       </c>
-      <c r="F128">
-        <v>2.8</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>toilet</t>
         </is>
@@ -3350,16 +2775,13 @@
           <t>blaubeere</t>
         </is>
       </c>
-      <c r="B129">
+      <c r="C129">
+        <v>2.8</v>
+      </c>
+      <c r="D129">
         <v>0.2</v>
       </c>
-      <c r="D129">
-        <v>2.8</v>
-      </c>
-      <c r="F129">
-        <v>2.8</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>blueberry</t>
         </is>
@@ -3371,16 +2793,13 @@
           <t>stachelbeere</t>
         </is>
       </c>
-      <c r="B130">
+      <c r="C130">
+        <v>2.8</v>
+      </c>
+      <c r="D130">
         <v>0.57</v>
       </c>
-      <c r="D130">
-        <v>2.8</v>
-      </c>
-      <c r="F130">
-        <v>2.8</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>gooseberry</t>
         </is>
@@ -3392,16 +2811,13 @@
           <t>angeln</t>
         </is>
       </c>
-      <c r="B131">
+      <c r="C131">
+        <v>2.8</v>
+      </c>
+      <c r="D131">
         <v>0.15</v>
       </c>
-      <c r="D131">
-        <v>2.8</v>
-      </c>
-      <c r="F131">
-        <v>2.8</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>fishing</t>
         </is>
@@ -3416,10 +2832,7 @@
       <c r="C132">
         <v>2.81</v>
       </c>
-      <c r="F132">
-        <v>2.81</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>hear</t>
         </is>
@@ -3434,10 +2847,7 @@
       <c r="C133">
         <v>2.81</v>
       </c>
-      <c r="F133">
-        <v>2.81</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>slug</t>
         </is>
@@ -3449,28 +2859,19 @@
           <t>schwein</t>
         </is>
       </c>
-      <c r="B134">
-        <v>18.36</v>
-      </c>
       <c r="C134">
         <v>2.81</v>
       </c>
       <c r="D134">
-        <v>1.8</v>
-      </c>
-      <c r="F134">
-        <v>2.81</v>
-      </c>
-      <c r="H134" t="inlineStr">
+        <v>18.36</v>
+      </c>
+      <c r="E134">
+        <v>1.95</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>pig</t>
         </is>
-      </c>
-      <c r="I134">
-        <v>1.95</v>
-      </c>
-      <c r="J134">
-        <v>4.09</v>
       </c>
     </row>
     <row r="135">
@@ -3479,28 +2880,19 @@
           <t>pferd</t>
         </is>
       </c>
-      <c r="B135">
-        <v>76.31</v>
-      </c>
       <c r="C135">
         <v>2.82</v>
       </c>
       <c r="D135">
-        <v>1.75</v>
-      </c>
-      <c r="F135">
-        <v>2.82</v>
-      </c>
-      <c r="H135" t="inlineStr">
+        <v>76.31</v>
+      </c>
+      <c r="E135">
+        <v>1.95</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>horse</t>
         </is>
-      </c>
-      <c r="I135">
-        <v>1.95</v>
-      </c>
-      <c r="J135">
-        <v>3.92</v>
       </c>
     </row>
     <row r="136">
@@ -3512,10 +2904,7 @@
       <c r="C136">
         <v>2.82</v>
       </c>
-      <c r="F136">
-        <v>2.82</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>animal</t>
         </is>
@@ -3530,19 +2919,13 @@
       <c r="C137">
         <v>2.83</v>
       </c>
-      <c r="F137">
-        <v>2.83</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="E137">
+        <v>2.38</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>bread</t>
         </is>
-      </c>
-      <c r="I137">
-        <v>2.38</v>
-      </c>
-      <c r="J137">
-        <v>3.75</v>
       </c>
     </row>
     <row r="138">
@@ -3554,10 +2937,7 @@
       <c r="C138">
         <v>2.83</v>
       </c>
-      <c r="F138">
-        <v>2.83</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>loud</t>
         </is>
@@ -3569,28 +2949,19 @@
           <t>maus</t>
         </is>
       </c>
-      <c r="B139">
-        <v>10.57</v>
-      </c>
       <c r="C139">
         <v>2.83</v>
       </c>
       <c r="D139">
-        <v>1.55</v>
-      </c>
-      <c r="F139">
-        <v>2.83</v>
-      </c>
-      <c r="H139" t="inlineStr">
+        <v>10.57</v>
+      </c>
+      <c r="E139">
+        <v>1.95</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>mouse</t>
         </is>
-      </c>
-      <c r="I139">
-        <v>1.95</v>
-      </c>
-      <c r="J139">
-        <v>4.96</v>
       </c>
     </row>
     <row r="140">
@@ -3602,10 +2973,7 @@
       <c r="C140">
         <v>2.83</v>
       </c>
-      <c r="F140">
-        <v>2.83</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>speak</t>
         </is>
@@ -3620,10 +2988,7 @@
       <c r="C141">
         <v>2.84</v>
       </c>
-      <c r="F141">
-        <v>2.84</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>catch</t>
         </is>
@@ -3638,19 +3003,13 @@
       <c r="C142">
         <v>2.84</v>
       </c>
-      <c r="F142">
-        <v>2.84</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="E142">
+        <v>2.09</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>window</t>
         </is>
-      </c>
-      <c r="I142">
-        <v>2.09</v>
-      </c>
-      <c r="J142">
-        <v>4.56</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3021,7 @@
       <c r="C143">
         <v>2.84</v>
       </c>
-      <c r="F143">
-        <v>2.84</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -3680,19 +3036,13 @@
       <c r="C144">
         <v>2.85</v>
       </c>
-      <c r="F144">
-        <v>2.85</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="E144">
+        <v>1.84</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>tree</t>
         </is>
-      </c>
-      <c r="I144">
-        <v>1.84</v>
-      </c>
-      <c r="J144">
-        <v>3.69</v>
       </c>
     </row>
     <row r="145">
@@ -3701,16 +3051,13 @@
           <t>hirsch</t>
         </is>
       </c>
-      <c r="B145">
+      <c r="C145">
+        <v>2.85</v>
+      </c>
+      <c r="D145">
         <v>11</v>
       </c>
-      <c r="D145">
-        <v>2.85</v>
-      </c>
-      <c r="F145">
-        <v>2.85</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>stag / deer</t>
         </is>
@@ -3722,16 +3069,13 @@
           <t>blumenkohl</t>
         </is>
       </c>
-      <c r="B146">
+      <c r="C146">
+        <v>2.85</v>
+      </c>
+      <c r="D146">
         <v>2.51</v>
       </c>
-      <c r="D146">
-        <v>2.85</v>
-      </c>
-      <c r="F146">
-        <v>2.85</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>cauliflower</t>
         </is>
@@ -3743,16 +3087,13 @@
           <t>kohlrabi</t>
         </is>
       </c>
-      <c r="B147">
+      <c r="C147">
+        <v>2.85</v>
+      </c>
+      <c r="D147">
         <v>1.19</v>
       </c>
-      <c r="D147">
-        <v>2.85</v>
-      </c>
-      <c r="F147">
-        <v>2.85</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>kohlrabi</t>
         </is>
@@ -3764,16 +3105,13 @@
           <t>rotkohl</t>
         </is>
       </c>
-      <c r="B148">
+      <c r="C148">
+        <v>2.85</v>
+      </c>
+      <c r="D148">
         <v>0.6</v>
       </c>
-      <c r="D148">
-        <v>2.85</v>
-      </c>
-      <c r="F148">
-        <v>2.85</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>red cabbage</t>
         </is>
@@ -3785,25 +3123,19 @@
           <t>pfirsich</t>
         </is>
       </c>
-      <c r="B149">
+      <c r="C149">
+        <v>2.85</v>
+      </c>
+      <c r="D149">
         <v>2.24</v>
       </c>
-      <c r="D149">
-        <v>2.85</v>
-      </c>
-      <c r="F149">
-        <v>2.85</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="E149">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
-      </c>
-      <c r="I149">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J149">
-        <v>4.74</v>
       </c>
     </row>
     <row r="150">
@@ -3812,16 +3144,13 @@
           <t>sauerkirsche</t>
         </is>
       </c>
-      <c r="B150">
+      <c r="C150">
+        <v>2.85</v>
+      </c>
+      <c r="D150">
         <v>0.41</v>
       </c>
-      <c r="D150">
-        <v>2.85</v>
-      </c>
-      <c r="F150">
-        <v>2.85</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>sour cherry</t>
         </is>
@@ -3833,16 +3162,13 @@
           <t>strickjacke</t>
         </is>
       </c>
-      <c r="B151">
+      <c r="C151">
+        <v>2.85</v>
+      </c>
+      <c r="D151">
         <v>0.51</v>
       </c>
-      <c r="D151">
-        <v>2.85</v>
-      </c>
-      <c r="F151">
-        <v>2.85</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>cardigan</t>
         </is>
@@ -3854,16 +3180,13 @@
           <t>unterwäsche</t>
         </is>
       </c>
-      <c r="B152">
+      <c r="C152">
+        <v>2.85</v>
+      </c>
+      <c r="D152">
         <v>1.5</v>
       </c>
-      <c r="D152">
-        <v>2.85</v>
-      </c>
-      <c r="F152">
-        <v>2.85</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>underwear</t>
         </is>
@@ -3875,16 +3198,13 @@
           <t>nachttisch</t>
         </is>
       </c>
-      <c r="B153">
+      <c r="C153">
+        <v>2.85</v>
+      </c>
+      <c r="D153">
         <v>2.09</v>
       </c>
-      <c r="D153">
-        <v>2.85</v>
-      </c>
-      <c r="F153">
-        <v>2.85</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>bedside table</t>
         </is>
@@ -3896,16 +3216,13 @@
           <t>schaukelstuhl</t>
         </is>
       </c>
-      <c r="B154">
+      <c r="C154">
+        <v>2.85</v>
+      </c>
+      <c r="D154">
         <v>1.07</v>
       </c>
-      <c r="D154">
-        <v>2.85</v>
-      </c>
-      <c r="F154">
-        <v>2.85</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>rocking chair</t>
         </is>
@@ -3920,10 +3237,7 @@
       <c r="C155">
         <v>2.86</v>
       </c>
-      <c r="F155">
-        <v>2.86</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>hunger</t>
         </is>
@@ -3938,10 +3252,7 @@
       <c r="C156">
         <v>2.86</v>
       </c>
-      <c r="F156">
-        <v>2.86</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>song</t>
         </is>
@@ -3953,28 +3264,19 @@
           <t>socke</t>
         </is>
       </c>
-      <c r="B157">
-        <v>0.29</v>
-      </c>
       <c r="C157">
         <v>2.86</v>
       </c>
       <c r="D157">
-        <v>2.1</v>
-      </c>
-      <c r="F157">
-        <v>2.86</v>
-      </c>
-      <c r="H157" t="inlineStr">
+        <v>0.29</v>
+      </c>
+      <c r="E157">
+        <v>1.95</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>sock</t>
         </is>
-      </c>
-      <c r="I157">
-        <v>1.95</v>
-      </c>
-      <c r="J157">
-        <v>3.36</v>
       </c>
     </row>
     <row r="158">
@@ -3983,28 +3285,19 @@
           <t>stuhl</t>
         </is>
       </c>
-      <c r="B158">
-        <v>50.37</v>
-      </c>
       <c r="C158">
         <v>2.86</v>
       </c>
       <c r="D158">
-        <v>1.6</v>
-      </c>
-      <c r="F158">
-        <v>2.86</v>
-      </c>
-      <c r="H158" t="inlineStr">
+        <v>50.37</v>
+      </c>
+      <c r="E158">
+        <v>1.84</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>chair</t>
         </is>
-      </c>
-      <c r="I158">
-        <v>1.84</v>
-      </c>
-      <c r="J158">
-        <v>3.82</v>
       </c>
     </row>
     <row r="159">
@@ -4016,10 +3309,7 @@
       <c r="C159">
         <v>2.87</v>
       </c>
-      <c r="F159">
-        <v>2.87</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>walk</t>
         </is>
@@ -4031,28 +3321,19 @@
           <t>katze</t>
         </is>
       </c>
-      <c r="B160">
-        <v>19.31</v>
-      </c>
       <c r="C160">
         <v>2.87</v>
       </c>
       <c r="D160">
-        <v>1.35</v>
-      </c>
-      <c r="F160">
-        <v>2.87</v>
-      </c>
-      <c r="H160" t="inlineStr">
+        <v>19.31</v>
+      </c>
+      <c r="E160">
+        <v>1.95</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
-      </c>
-      <c r="I160">
-        <v>1.95</v>
-      </c>
-      <c r="J160">
-        <v>3.07</v>
       </c>
     </row>
     <row r="161">
@@ -4064,10 +3345,7 @@
       <c r="C161">
         <v>2.87</v>
       </c>
-      <c r="F161">
-        <v>2.87</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>game</t>
         </is>
@@ -4082,10 +3360,7 @@
       <c r="C162">
         <v>2.88</v>
       </c>
-      <c r="F162">
-        <v>2.88</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>night</t>
         </is>
@@ -4100,10 +3375,7 @@
       <c r="C163">
         <v>2.88</v>
       </c>
-      <c r="F163">
-        <v>2.88</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>stand</t>
         </is>
@@ -4118,10 +3390,7 @@
       <c r="C164">
         <v>2.88</v>
       </c>
-      <c r="F164">
-        <v>2.88</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>tooth</t>
         </is>
@@ -4136,10 +3405,7 @@
       <c r="C165">
         <v>2.89</v>
       </c>
-      <c r="F165">
-        <v>2.89</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>sit</t>
         </is>
@@ -4151,16 +3417,13 @@
           <t>wildschwein</t>
         </is>
       </c>
-      <c r="B166">
+      <c r="C166">
+        <v>2.9</v>
+      </c>
+      <c r="D166">
         <v>1.29</v>
       </c>
-      <c r="D166">
-        <v>2.9</v>
-      </c>
-      <c r="F166">
-        <v>2.9</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>wild boar</t>
         </is>
@@ -4172,25 +3435,22 @@
           <t>schneiden</t>
         </is>
       </c>
-      <c r="E167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C167">
         <v>2.9</v>
       </c>
-      <c r="F167">
-        <v>2.9</v>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
           <t>cut</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -4200,25 +3460,22 @@
           <t>füttern</t>
         </is>
       </c>
-      <c r="E168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C168">
         <v>2.9</v>
       </c>
-      <c r="F168">
-        <v>2.9</v>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
           <t>feed</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -4231,10 +3488,7 @@
       <c r="C169">
         <v>2.91</v>
       </c>
-      <c r="F169">
-        <v>2.91</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>rain</t>
         </is>
@@ -4246,28 +3500,19 @@
           <t>auto</t>
         </is>
       </c>
-      <c r="B170">
-        <v>51.85</v>
-      </c>
       <c r="C170">
         <v>2.92</v>
       </c>
       <c r="D170">
-        <v>1.5</v>
-      </c>
-      <c r="F170">
-        <v>2.92</v>
-      </c>
-      <c r="H170" t="inlineStr">
+        <v>51.85</v>
+      </c>
+      <c r="E170">
+        <v>1.84</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>car</t>
         </is>
-      </c>
-      <c r="I170">
-        <v>1.84</v>
-      </c>
-      <c r="J170">
-        <v>3.68</v>
       </c>
     </row>
     <row r="171">
@@ -4279,10 +3524,7 @@
       <c r="C171">
         <v>2.92</v>
       </c>
-      <c r="F171">
-        <v>2.92</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>sand</t>
         </is>
@@ -4297,19 +3539,13 @@
       <c r="C172">
         <v>2.93</v>
       </c>
-      <c r="F172">
-        <v>2.93</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="E172">
+        <v>1.84</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>flower</t>
         </is>
-      </c>
-      <c r="I172">
-        <v>1.84</v>
-      </c>
-      <c r="J172">
-        <v>3.33</v>
       </c>
     </row>
     <row r="173">
@@ -4321,10 +3557,7 @@
       <c r="C173">
         <v>2.93</v>
       </c>
-      <c r="F173">
-        <v>2.93</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>brother</t>
         </is>
@@ -4339,19 +3572,13 @@
       <c r="C174">
         <v>2.93</v>
       </c>
-      <c r="F174">
-        <v>2.93</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="E174">
+        <v>3.21</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>foot</t>
         </is>
-      </c>
-      <c r="I174">
-        <v>3.21</v>
-      </c>
-      <c r="J174">
-        <v>3.03</v>
       </c>
     </row>
     <row r="175">
@@ -4363,10 +3590,7 @@
       <c r="C175">
         <v>2.93</v>
       </c>
-      <c r="F175">
-        <v>2.93</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>do</t>
         </is>
@@ -4381,19 +3605,13 @@
       <c r="C176">
         <v>2.93</v>
       </c>
-      <c r="F176">
-        <v>2.93</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="E176">
+        <v>1.84</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>shoe</t>
         </is>
-      </c>
-      <c r="I176">
-        <v>1.84</v>
-      </c>
-      <c r="J176">
-        <v>3.13</v>
       </c>
     </row>
     <row r="177">
@@ -4405,10 +3623,7 @@
       <c r="C177">
         <v>2.94</v>
       </c>
-      <c r="F177">
-        <v>2.94</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>more</t>
         </is>
@@ -4423,10 +3638,7 @@
       <c r="C178">
         <v>2.94</v>
       </c>
-      <c r="F178">
-        <v>2.94</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
@@ -4441,10 +3653,7 @@
       <c r="C179">
         <v>2.94</v>
       </c>
-      <c r="F179">
-        <v>2.94</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>wall</t>
         </is>
@@ -4459,10 +3668,7 @@
       <c r="C180">
         <v>2.95</v>
       </c>
-      <c r="F180">
-        <v>2.95</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>ice cream</t>
         </is>
@@ -4477,10 +3683,7 @@
       <c r="C181">
         <v>2.95</v>
       </c>
-      <c r="F181">
-        <v>2.95</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>fall</t>
         </is>
@@ -4495,10 +3698,7 @@
       <c r="C182">
         <v>2.95</v>
       </c>
-      <c r="F182">
-        <v>2.95</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>green</t>
         </is>
@@ -4513,10 +3713,7 @@
       <c r="C183">
         <v>2.95</v>
       </c>
-      <c r="F183">
-        <v>2.95</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>noodle</t>
         </is>
@@ -4531,10 +3728,7 @@
       <c r="C184">
         <v>2.95</v>
       </c>
-      <c r="F184">
-        <v>2.95</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>full</t>
         </is>
@@ -4549,10 +3743,7 @@
       <c r="C185">
         <v>2.95</v>
       </c>
-      <c r="F185">
-        <v>2.95</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>bag</t>
         </is>
@@ -4564,16 +3755,13 @@
           <t>hosenträger</t>
         </is>
       </c>
-      <c r="B186">
+      <c r="C186">
+        <v>2.95</v>
+      </c>
+      <c r="D186">
         <v>1.72</v>
       </c>
-      <c r="D186">
-        <v>2.95</v>
-      </c>
-      <c r="F186">
-        <v>2.95</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>braces</t>
         </is>
@@ -4585,16 +3773,13 @@
           <t>omnibus</t>
         </is>
       </c>
-      <c r="B187">
+      <c r="C187">
+        <v>2.95</v>
+      </c>
+      <c r="D187">
         <v>4.22</v>
       </c>
-      <c r="D187">
-        <v>2.95</v>
-      </c>
-      <c r="F187">
-        <v>2.95</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>motor coach</t>
         </is>
@@ -4606,13 +3791,10 @@
           <t>esstisch</t>
         </is>
       </c>
-      <c r="D188">
+      <c r="C188">
         <v>2.95</v>
       </c>
-      <c r="F188">
-        <v>2.95</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>dining table</t>
         </is>
@@ -4624,25 +3806,19 @@
           <t>krankenschwester</t>
         </is>
       </c>
-      <c r="B189">
+      <c r="C189">
+        <v>2.95</v>
+      </c>
+      <c r="D189">
         <v>4.41</v>
       </c>
-      <c r="D189">
-        <v>2.95</v>
-      </c>
-      <c r="F189">
-        <v>2.95</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="E189">
+        <v>4.21</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>nurse</t>
         </is>
-      </c>
-      <c r="I189">
-        <v>4.21</v>
-      </c>
-      <c r="J189">
-        <v>5.65</v>
       </c>
     </row>
     <row r="190">
@@ -4651,16 +3827,13 @@
           <t>lokführer</t>
         </is>
       </c>
-      <c r="B190">
+      <c r="C190">
+        <v>2.95</v>
+      </c>
+      <c r="D190">
         <v>0.44</v>
       </c>
-      <c r="D190">
-        <v>2.95</v>
-      </c>
-      <c r="F190">
-        <v>2.95</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>train driver</t>
         </is>
@@ -4675,10 +3848,7 @@
       <c r="C191">
         <v>2.96</v>
       </c>
-      <c r="F191">
-        <v>2.96</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>silent</t>
         </is>
@@ -4693,10 +3863,7 @@
       <c r="C192">
         <v>2.96</v>
       </c>
-      <c r="F192">
-        <v>2.96</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>warm</t>
         </is>
@@ -4711,10 +3878,7 @@
       <c r="C193">
         <v>2.97</v>
       </c>
-      <c r="F193">
-        <v>2.97</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>princess</t>
         </is>
@@ -4726,28 +3890,19 @@
           <t>affe</t>
         </is>
       </c>
-      <c r="B194">
-        <v>10.37</v>
-      </c>
       <c r="C194">
         <v>3</v>
       </c>
       <c r="D194">
-        <v>1.8</v>
-      </c>
-      <c r="F194">
-        <v>3</v>
-      </c>
-      <c r="H194" t="inlineStr">
+        <v>10.37</v>
+      </c>
+      <c r="E194">
+        <v>2.09</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>monkey</t>
         </is>
-      </c>
-      <c r="I194">
-        <v>2.09</v>
-      </c>
-      <c r="J194">
-        <v>4.13</v>
       </c>
     </row>
     <row r="195">
@@ -4759,10 +3914,7 @@
       <c r="C195">
         <v>3</v>
       </c>
-      <c r="F195">
-        <v>3</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>mug</t>
         </is>
@@ -4774,28 +3926,19 @@
           <t>biene</t>
         </is>
       </c>
-      <c r="B196">
-        <v>11.69</v>
-      </c>
       <c r="C196">
         <v>3</v>
       </c>
       <c r="D196">
-        <v>1.9</v>
-      </c>
-      <c r="F196">
-        <v>3</v>
-      </c>
-      <c r="H196" t="inlineStr">
+        <v>11.69</v>
+      </c>
+      <c r="E196">
+        <v>4.71</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>bee</t>
         </is>
-      </c>
-      <c r="I196">
-        <v>4.71</v>
-      </c>
-      <c r="J196">
-        <v>4.01</v>
       </c>
     </row>
     <row r="197">
@@ -4807,19 +3950,13 @@
       <c r="C197">
         <v>3</v>
       </c>
-      <c r="F197">
-        <v>3</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="E197">
+        <v>1.84</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>book</t>
         </is>
-      </c>
-      <c r="I197">
-        <v>1.84</v>
-      </c>
-      <c r="J197">
-        <v>3.89</v>
       </c>
     </row>
     <row r="198">
@@ -4828,28 +3965,19 @@
           <t>ente</t>
         </is>
       </c>
-      <c r="B198">
-        <v>5.4</v>
-      </c>
       <c r="C198">
         <v>3</v>
       </c>
       <c r="D198">
-        <v>1.8</v>
-      </c>
-      <c r="F198">
-        <v>3</v>
-      </c>
-      <c r="H198" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="E198">
+        <v>1.84</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>duck</t>
         </is>
-      </c>
-      <c r="I198">
-        <v>1.84</v>
-      </c>
-      <c r="J198">
-        <v>3.53</v>
       </c>
     </row>
     <row r="199">
@@ -4858,28 +3986,19 @@
           <t>ente</t>
         </is>
       </c>
-      <c r="B199">
-        <v>5.4</v>
-      </c>
       <c r="C199">
         <v>3</v>
       </c>
       <c r="D199">
-        <v>1.6</v>
-      </c>
-      <c r="F199">
-        <v>3</v>
-      </c>
-      <c r="H199" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="E199">
+        <v>1.84</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>duck</t>
         </is>
-      </c>
-      <c r="I199">
-        <v>1.84</v>
-      </c>
-      <c r="J199">
-        <v>3.53</v>
       </c>
     </row>
     <row r="200">
@@ -4891,10 +4010,7 @@
       <c r="C200">
         <v>3</v>
       </c>
-      <c r="F200">
-        <v>3</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>narrate</t>
         </is>
@@ -4909,10 +4025,7 @@
       <c r="C201">
         <v>3</v>
       </c>
-      <c r="F201">
-        <v>3</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>fire</t>
         </is>
@@ -4927,10 +4040,7 @@
       <c r="C202">
         <v>3</v>
       </c>
-      <c r="F202">
-        <v>3</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>birthday</t>
         </is>
@@ -4942,19 +4052,13 @@
           <t>huhn</t>
         </is>
       </c>
-      <c r="B203">
-        <v>11.9</v>
-      </c>
       <c r="C203">
         <v>3</v>
       </c>
       <c r="D203">
-        <v>1.6</v>
-      </c>
-      <c r="F203">
-        <v>3</v>
-      </c>
-      <c r="H203" t="inlineStr">
+        <v>11.9</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>chicken</t>
         </is>
@@ -4966,19 +4070,13 @@
           <t>huhn</t>
         </is>
       </c>
-      <c r="B204">
-        <v>11.9</v>
-      </c>
       <c r="C204">
         <v>3</v>
       </c>
       <c r="D204">
-        <v>2.05</v>
-      </c>
-      <c r="F204">
-        <v>3</v>
-      </c>
-      <c r="H204" t="inlineStr">
+        <v>11.9</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>chicken</t>
         </is>
@@ -4993,10 +4091,7 @@
       <c r="C205">
         <v>3</v>
       </c>
-      <c r="F205">
-        <v>3</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>cry</t>
         </is>
@@ -5011,10 +4106,7 @@
       <c r="C206">
         <v>3</v>
       </c>
-      <c r="F206">
-        <v>3</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>white</t>
         </is>
@@ -5029,10 +4121,7 @@
       <c r="C207">
         <v>3</v>
       </c>
-      <c r="F207">
-        <v>3</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>want</t>
         </is>
@@ -5044,16 +4133,13 @@
           <t>süßkirsche</t>
         </is>
       </c>
-      <c r="B208">
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
         <v>0.25</v>
       </c>
-      <c r="D208">
-        <v>3</v>
-      </c>
-      <c r="F208">
-        <v>3</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>sweet cherry</t>
         </is>
@@ -5065,16 +4151,13 @@
           <t>anorak</t>
         </is>
       </c>
-      <c r="B209">
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
         <v>0.31</v>
       </c>
-      <c r="D209">
-        <v>3</v>
-      </c>
-      <c r="F209">
-        <v>3</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>anorak</t>
         </is>
@@ -5086,16 +4169,13 @@
           <t>reiten</t>
         </is>
       </c>
-      <c r="B210">
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210">
         <v>2.75</v>
       </c>
-      <c r="D210">
-        <v>3</v>
-      </c>
-      <c r="F210">
-        <v>3</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>horseback riding</t>
         </is>
@@ -5107,16 +4187,13 @@
           <t>fleischer</t>
         </is>
       </c>
-      <c r="B211">
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
         <v>2.77</v>
       </c>
-      <c r="D211">
-        <v>3</v>
-      </c>
-      <c r="F211">
-        <v>3</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>butcher</t>
         </is>
@@ -5128,16 +4205,13 @@
           <t>kapitän</t>
         </is>
       </c>
-      <c r="B212">
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212">
         <v>22.28</v>
       </c>
-      <c r="D212">
-        <v>3</v>
-      </c>
-      <c r="F212">
-        <v>3</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>captain</t>
         </is>
@@ -5149,25 +4223,22 @@
           <t>aufwachen</t>
         </is>
       </c>
-      <c r="E213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C213">
         <v>3</v>
       </c>
-      <c r="F213">
-        <v>3</v>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
           <t>wake up</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5180,19 +4251,13 @@
       <c r="C214">
         <v>3.02</v>
       </c>
-      <c r="F214">
-        <v>3.02</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="E214">
+        <v>1.95</v>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>cake</t>
         </is>
-      </c>
-      <c r="I214">
-        <v>1.95</v>
-      </c>
-      <c r="J214">
-        <v>3.92</v>
       </c>
     </row>
     <row r="215">
@@ -5201,28 +4266,19 @@
           <t>bär</t>
         </is>
       </c>
-      <c r="B215">
-        <v>10.33</v>
-      </c>
       <c r="C215">
         <v>3.04</v>
       </c>
       <c r="D215">
-        <v>1.75</v>
-      </c>
-      <c r="F215">
-        <v>3.04</v>
-      </c>
-      <c r="H215" t="inlineStr">
+        <v>10.33</v>
+      </c>
+      <c r="E215">
+        <v>4.21</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>bear</t>
         </is>
-      </c>
-      <c r="I215">
-        <v>4.21</v>
-      </c>
-      <c r="J215">
-        <v>3.92</v>
       </c>
     </row>
     <row r="216">
@@ -5234,19 +4290,13 @@
       <c r="C216">
         <v>3.04</v>
       </c>
-      <c r="F216">
-        <v>3.04</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="E216">
+        <v>4.71</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>hair</t>
         </is>
-      </c>
-      <c r="I216">
-        <v>4.71</v>
-      </c>
-      <c r="J216">
-        <v>3.31</v>
       </c>
     </row>
     <row r="217">
@@ -5258,19 +4308,13 @@
       <c r="C217">
         <v>3.04</v>
       </c>
-      <c r="F217">
-        <v>3.04</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="E217">
+        <v>5.71</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>biscuit</t>
         </is>
-      </c>
-      <c r="I217">
-        <v>5.71</v>
-      </c>
-      <c r="J217">
-        <v>5.33</v>
       </c>
     </row>
     <row r="218">
@@ -5282,10 +4326,7 @@
       <c r="C218">
         <v>3.04</v>
       </c>
-      <c r="F218">
-        <v>3.04</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
@@ -5300,10 +4341,7 @@
       <c r="C219">
         <v>3.05</v>
       </c>
-      <c r="F219">
-        <v>3.05</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>evening</t>
         </is>
@@ -5318,10 +4356,7 @@
       <c r="C220">
         <v>3.05</v>
       </c>
-      <c r="F220">
-        <v>3.05</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>sister</t>
         </is>
@@ -5336,10 +4371,7 @@
       <c r="C221">
         <v>3.05</v>
       </c>
-      <c r="F221">
-        <v>3.05</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>sausage</t>
         </is>
@@ -5351,16 +4383,13 @@
           <t>latzhose</t>
         </is>
       </c>
-      <c r="B222">
+      <c r="C222">
+        <v>3.05</v>
+      </c>
+      <c r="D222">
         <v>0.13</v>
       </c>
-      <c r="D222">
-        <v>3.05</v>
-      </c>
-      <c r="F222">
-        <v>3.05</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>dungarees</t>
         </is>
@@ -5372,16 +4401,13 @@
           <t>mundharmonika</t>
         </is>
       </c>
-      <c r="B223">
+      <c r="C223">
+        <v>3.05</v>
+      </c>
+      <c r="D223">
         <v>1.36</v>
       </c>
-      <c r="D223">
-        <v>3.05</v>
-      </c>
-      <c r="F223">
-        <v>3.05</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>harmonica</t>
         </is>
@@ -5396,10 +4422,7 @@
       <c r="C224">
         <v>3.06</v>
       </c>
-      <c r="F224">
-        <v>3.06</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>come</t>
         </is>
@@ -5414,10 +4437,7 @@
       <c r="C225">
         <v>3.07</v>
       </c>
-      <c r="F225">
-        <v>3.07</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>lunch</t>
         </is>
@@ -5432,10 +4452,7 @@
       <c r="C226">
         <v>3.07</v>
       </c>
-      <c r="F226">
-        <v>3.07</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>awake</t>
         </is>
@@ -5450,10 +4467,7 @@
       <c r="C227">
         <v>3.08</v>
       </c>
-      <c r="F227">
-        <v>3.08</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>pillow</t>
         </is>
@@ -5468,10 +4482,7 @@
       <c r="C228">
         <v>3.08</v>
       </c>
-      <c r="F228">
-        <v>3.08</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>lollipop</t>
         </is>
@@ -5486,10 +4497,7 @@
       <c r="C229">
         <v>3.08</v>
       </c>
-      <c r="F229">
-        <v>3.08</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>uncle</t>
         </is>
@@ -5501,25 +4509,22 @@
           <t>kämmen</t>
         </is>
       </c>
-      <c r="E230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C230">
         <v>3.1</v>
       </c>
-      <c r="F230">
-        <v>3.1</v>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
           <t>comb</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5532,10 +4537,7 @@
       <c r="C231">
         <v>3.1</v>
       </c>
-      <c r="F231">
-        <v>3.1</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -5547,25 +4549,19 @@
           <t>krebs</t>
         </is>
       </c>
-      <c r="B232">
+      <c r="C232">
+        <v>3.1</v>
+      </c>
+      <c r="D232">
         <v>11.34</v>
       </c>
-      <c r="D232">
-        <v>3.1</v>
-      </c>
-      <c r="F232">
-        <v>3.1</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="E232">
+        <v>4.21</v>
+      </c>
+      <c r="G232" t="inlineStr">
         <is>
           <t>crab</t>
         </is>
-      </c>
-      <c r="I232">
-        <v>4.21</v>
-      </c>
-      <c r="J232">
-        <v>5.46</v>
       </c>
     </row>
     <row r="233">
@@ -5574,16 +4570,13 @@
           <t>wellensittich</t>
         </is>
       </c>
-      <c r="B233">
+      <c r="C233">
+        <v>3.1</v>
+      </c>
+      <c r="D233">
         <v>0.8100000000000001</v>
       </c>
-      <c r="D233">
-        <v>3.1</v>
-      </c>
-      <c r="F233">
-        <v>3.1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>budgerigar</t>
         </is>
@@ -5595,16 +4588,13 @@
           <t>johannisbeere</t>
         </is>
       </c>
-      <c r="B234">
+      <c r="C234">
+        <v>3.1</v>
+      </c>
+      <c r="D234">
         <v>0.73</v>
       </c>
-      <c r="D234">
-        <v>3.1</v>
-      </c>
-      <c r="F234">
-        <v>3.1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>redcurrant</t>
         </is>
@@ -5616,16 +4606,13 @@
           <t>strumpfhose</t>
         </is>
       </c>
-      <c r="B235">
+      <c r="C235">
+        <v>3.1</v>
+      </c>
+      <c r="D235">
         <v>0.24</v>
       </c>
-      <c r="D235">
-        <v>3.1</v>
-      </c>
-      <c r="F235">
-        <v>3.1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>tights</t>
         </is>
@@ -5637,16 +4624,13 @@
           <t>wäscheschrank</t>
         </is>
       </c>
-      <c r="B236">
+      <c r="C236">
+        <v>3.1</v>
+      </c>
+      <c r="D236">
         <v>0.42</v>
       </c>
-      <c r="D236">
-        <v>3.1</v>
-      </c>
-      <c r="F236">
-        <v>3.1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>linen cupboard</t>
         </is>
@@ -5658,16 +4642,13 @@
           <t>rassel</t>
         </is>
       </c>
-      <c r="B237">
+      <c r="C237">
+        <v>3.1</v>
+      </c>
+      <c r="D237">
         <v>1.28</v>
       </c>
-      <c r="D237">
-        <v>3.1</v>
-      </c>
-      <c r="F237">
-        <v>3.1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>rattle</t>
         </is>
@@ -5679,16 +4660,13 @@
           <t>turnen</t>
         </is>
       </c>
-      <c r="B238">
+      <c r="C238">
+        <v>3.1</v>
+      </c>
+      <c r="D238">
         <v>2.69</v>
       </c>
-      <c r="D238">
-        <v>3.1</v>
-      </c>
-      <c r="F238">
-        <v>3.1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>physical education</t>
         </is>
@@ -5700,16 +4678,13 @@
           <t>förster</t>
         </is>
       </c>
-      <c r="B239">
+      <c r="C239">
+        <v>3.1</v>
+      </c>
+      <c r="D239">
         <v>5.9</v>
       </c>
-      <c r="D239">
-        <v>3.1</v>
-      </c>
-      <c r="F239">
-        <v>3.1</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>forester</t>
         </is>
@@ -5724,10 +4699,7 @@
       <c r="C240">
         <v>3.11</v>
       </c>
-      <c r="F240">
-        <v>3.11</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>stomach ache</t>
         </is>
@@ -5739,19 +4711,13 @@
           <t>erbse</t>
         </is>
       </c>
-      <c r="B241">
-        <v>4.97</v>
-      </c>
       <c r="C241">
         <v>3.11</v>
       </c>
       <c r="D241">
-        <v>2.1</v>
-      </c>
-      <c r="F241">
-        <v>3.11</v>
-      </c>
-      <c r="H241" t="inlineStr">
+        <v>4.97</v>
+      </c>
+      <c r="G241" t="inlineStr">
         <is>
           <t>pea</t>
         </is>
@@ -5766,10 +4732,7 @@
       <c r="C242">
         <v>3.11</v>
       </c>
-      <c r="F242">
-        <v>3.11</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>slow</t>
         </is>
@@ -5781,28 +4744,19 @@
           <t>trommel</t>
         </is>
       </c>
-      <c r="B243">
-        <v>10.33</v>
-      </c>
       <c r="C243">
         <v>3.11</v>
       </c>
       <c r="D243">
-        <v>2</v>
-      </c>
-      <c r="F243">
-        <v>3.11</v>
-      </c>
-      <c r="H243" t="inlineStr">
+        <v>10.33</v>
+      </c>
+      <c r="E243">
+        <v>4.21</v>
+      </c>
+      <c r="G243" t="inlineStr">
         <is>
           <t>drum</t>
         </is>
-      </c>
-      <c r="I243">
-        <v>4.21</v>
-      </c>
-      <c r="J243">
-        <v>5.24</v>
       </c>
     </row>
     <row r="244">
@@ -5814,10 +4768,7 @@
       <c r="C244">
         <v>3.12</v>
       </c>
-      <c r="F244">
-        <v>3.12</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>blanket</t>
         </is>
@@ -5832,10 +4783,7 @@
       <c r="C245">
         <v>3.12</v>
       </c>
-      <c r="F245">
-        <v>3.12</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>lie</t>
         </is>
@@ -5850,10 +4798,7 @@
       <c r="C246">
         <v>3.12</v>
       </c>
-      <c r="F246">
-        <v>3.12</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>snow</t>
         </is>
@@ -5865,28 +4810,19 @@
           <t>tisch</t>
         </is>
       </c>
-      <c r="B247">
-        <v>139.33</v>
-      </c>
       <c r="C247">
         <v>3.12</v>
       </c>
       <c r="D247">
-        <v>1.35</v>
-      </c>
-      <c r="F247">
-        <v>3.12</v>
-      </c>
-      <c r="H247" t="inlineStr">
+        <v>139.33</v>
+      </c>
+      <c r="E247">
+        <v>1.84</v>
+      </c>
+      <c r="G247" t="inlineStr">
         <is>
           <t>table</t>
         </is>
-      </c>
-      <c r="I247">
-        <v>1.84</v>
-      </c>
-      <c r="J247">
-        <v>3.61</v>
       </c>
     </row>
     <row r="248">
@@ -5895,34 +4831,25 @@
           <t>tür</t>
         </is>
       </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C248">
         <v>3.12</v>
       </c>
       <c r="E248">
-        <v>2</v>
-      </c>
-      <c r="F248">
-        <v>3.12</v>
+        <v>1.84</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
           <t>door</t>
-        </is>
-      </c>
-      <c r="I248">
-        <v>1.84</v>
-      </c>
-      <c r="J248">
-        <v>3.75</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5932,28 +4859,22 @@
           <t>werfen</t>
         </is>
       </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C249">
         <v>3.12</v>
       </c>
-      <c r="E249">
-        <v>2.76</v>
-      </c>
-      <c r="F249">
-        <v>3.12</v>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
           <t>throw</t>
-        </is>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -5966,19 +4887,13 @@
       <c r="C250">
         <v>3.13</v>
       </c>
-      <c r="F250">
-        <v>3.13</v>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="E250">
+        <v>4.71</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>cloud</t>
         </is>
-      </c>
-      <c r="I250">
-        <v>4.71</v>
-      </c>
-      <c r="J250">
-        <v>4.26</v>
       </c>
     </row>
     <row r="251">
@@ -5990,10 +4905,7 @@
       <c r="C251">
         <v>3.14</v>
       </c>
-      <c r="F251">
-        <v>3.14</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>run</t>
         </is>
@@ -6008,10 +4920,7 @@
       <c r="C252">
         <v>3.14</v>
       </c>
-      <c r="F252">
-        <v>3.14</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>plate</t>
         </is>
@@ -6026,10 +4935,7 @@
       <c r="C253">
         <v>3.14</v>
       </c>
-      <c r="F253">
-        <v>3.14</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>bird</t>
         </is>
@@ -6044,10 +4950,7 @@
       <c r="C254">
         <v>3.15</v>
       </c>
-      <c r="F254">
-        <v>3.15</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>thank</t>
         </is>
@@ -6062,10 +4965,7 @@
       <c r="C255">
         <v>3.15</v>
       </c>
-      <c r="F255">
-        <v>3.15</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>call</t>
         </is>
@@ -6080,10 +4980,7 @@
       <c r="C256">
         <v>3.15</v>
       </c>
-      <c r="F256">
-        <v>3.15</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>scream</t>
         </is>
@@ -6095,16 +4992,13 @@
           <t>braunbär</t>
         </is>
       </c>
-      <c r="B257">
+      <c r="C257">
+        <v>3.15</v>
+      </c>
+      <c r="D257">
         <v>0.13</v>
       </c>
-      <c r="D257">
-        <v>3.15</v>
-      </c>
-      <c r="F257">
-        <v>3.15</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>brown bear</t>
         </is>
@@ -6116,16 +5010,13 @@
           <t>rotkehlchen</t>
         </is>
       </c>
-      <c r="B258">
+      <c r="C258">
+        <v>3.15</v>
+      </c>
+      <c r="D258">
         <v>0.47</v>
       </c>
-      <c r="D258">
-        <v>3.15</v>
-      </c>
-      <c r="F258">
-        <v>3.15</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>robin</t>
         </is>
@@ -6137,16 +5028,13 @@
           <t>straßenbahn</t>
         </is>
       </c>
-      <c r="B259">
+      <c r="C259">
+        <v>3.15</v>
+      </c>
+      <c r="D259">
         <v>11.04</v>
       </c>
-      <c r="D259">
-        <v>3.15</v>
-      </c>
-      <c r="F259">
-        <v>3.15</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>tram</t>
         </is>
@@ -6158,16 +5046,13 @@
           <t>busfahrer</t>
         </is>
       </c>
-      <c r="B260">
+      <c r="C260">
+        <v>3.15</v>
+      </c>
+      <c r="D260">
         <v>0.37</v>
       </c>
-      <c r="D260">
-        <v>3.15</v>
-      </c>
-      <c r="F260">
-        <v>3.15</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>bus driver</t>
         </is>
@@ -6179,16 +5064,13 @@
           <t>schneider</t>
         </is>
       </c>
-      <c r="B261">
+      <c r="C261">
+        <v>3.15</v>
+      </c>
+      <c r="D261">
         <v>15.59</v>
       </c>
-      <c r="D261">
-        <v>3.15</v>
-      </c>
-      <c r="F261">
-        <v>3.15</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>tailor</t>
         </is>
@@ -6200,16 +5082,13 @@
           <t>tierarzt</t>
         </is>
       </c>
-      <c r="B262">
+      <c r="C262">
+        <v>3.15</v>
+      </c>
+      <c r="D262">
         <v>1.99</v>
       </c>
-      <c r="D262">
-        <v>3.15</v>
-      </c>
-      <c r="F262">
-        <v>3.15</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>veterinarian</t>
         </is>
@@ -6224,10 +5103,7 @@
       <c r="C263">
         <v>3.16</v>
       </c>
-      <c r="F263">
-        <v>3.16</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>colour</t>
         </is>
@@ -6239,13 +5115,10 @@
           <t>fäustlinge</t>
         </is>
       </c>
-      <c r="D264">
+      <c r="C264">
         <v>3.17</v>
       </c>
-      <c r="F264">
-        <v>3.17</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>mittens</t>
         </is>
@@ -6260,10 +5133,7 @@
       <c r="C265">
         <v>3.17</v>
       </c>
-      <c r="F265">
-        <v>3.17</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>floor</t>
         </is>
@@ -6278,10 +5148,7 @@
       <c r="C266">
         <v>3.17</v>
       </c>
-      <c r="F266">
-        <v>3.17</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>thick</t>
         </is>
@@ -6296,10 +5163,7 @@
       <c r="C267">
         <v>3.17</v>
       </c>
-      <c r="F267">
-        <v>3.17</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>bright</t>
         </is>
@@ -6311,28 +5175,19 @@
           <t>messer</t>
         </is>
       </c>
-      <c r="B268">
-        <v>28.28</v>
-      </c>
       <c r="C268">
         <v>3.17</v>
       </c>
       <c r="D268">
-        <v>1.5</v>
-      </c>
-      <c r="F268">
-        <v>3.17</v>
-      </c>
-      <c r="H268" t="inlineStr">
+        <v>28.28</v>
+      </c>
+      <c r="E268">
+        <v>1.95</v>
+      </c>
+      <c r="G268" t="inlineStr">
         <is>
           <t>knife</t>
         </is>
-      </c>
-      <c r="I268">
-        <v>1.95</v>
-      </c>
-      <c r="J268">
-        <v>4.72</v>
       </c>
     </row>
     <row r="269">
@@ -6344,10 +5199,7 @@
       <c r="C269">
         <v>3.17</v>
       </c>
-      <c r="F269">
-        <v>3.17</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>carry</t>
         </is>
@@ -6362,10 +5214,7 @@
       <c r="C270">
         <v>3.18</v>
       </c>
-      <c r="F270">
-        <v>3.18</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>bonbon</t>
         </is>
@@ -6380,10 +5229,7 @@
       <c r="C271">
         <v>3.18</v>
       </c>
-      <c r="F271">
-        <v>3.18</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -6398,10 +5244,7 @@
       <c r="C272">
         <v>3.19</v>
       </c>
-      <c r="F272">
-        <v>3.19</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>little bed</t>
         </is>
@@ -6416,10 +5259,7 @@
       <c r="C273">
         <v>3.19</v>
       </c>
-      <c r="F273">
-        <v>3.19</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>long</t>
         </is>
@@ -6431,28 +5271,19 @@
           <t>rock</t>
         </is>
       </c>
-      <c r="B274">
-        <v>26.42</v>
-      </c>
       <c r="C274">
         <v>3.19</v>
       </c>
       <c r="D274">
-        <v>2.35</v>
-      </c>
-      <c r="F274">
-        <v>3.19</v>
-      </c>
-      <c r="H274" t="inlineStr">
+        <v>26.42</v>
+      </c>
+      <c r="E274">
+        <v>4.71</v>
+      </c>
+      <c r="G274" t="inlineStr">
         <is>
           <t>skirt</t>
         </is>
-      </c>
-      <c r="I274">
-        <v>4.71</v>
-      </c>
-      <c r="J274">
-        <v>5.33</v>
       </c>
     </row>
     <row r="275">
@@ -6461,28 +5292,19 @@
           <t>schiff</t>
         </is>
       </c>
-      <c r="B275">
-        <v>87.83</v>
-      </c>
       <c r="C275">
         <v>3.19</v>
       </c>
       <c r="D275">
-        <v>1.85</v>
-      </c>
-      <c r="F275">
-        <v>3.19</v>
-      </c>
-      <c r="H275" t="inlineStr">
+        <v>87.83</v>
+      </c>
+      <c r="E275">
+        <v>4.71</v>
+      </c>
+      <c r="G275" t="inlineStr">
         <is>
           <t>ship</t>
         </is>
-      </c>
-      <c r="I275">
-        <v>4.71</v>
-      </c>
-      <c r="J275">
-        <v>4.95</v>
       </c>
     </row>
     <row r="276">
@@ -6494,10 +5316,7 @@
       <c r="C276">
         <v>3.2</v>
       </c>
-      <c r="F276">
-        <v>3.2</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>grass</t>
         </is>
@@ -6509,16 +5328,13 @@
           <t>rosenkohl</t>
         </is>
       </c>
-      <c r="B277">
+      <c r="C277">
+        <v>3.2</v>
+      </c>
+      <c r="D277">
         <v>0.87</v>
       </c>
-      <c r="D277">
-        <v>3.2</v>
-      </c>
-      <c r="F277">
-        <v>3.2</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>brussels sprouts</t>
         </is>
@@ -6530,16 +5346,13 @@
           <t>lederhose</t>
         </is>
       </c>
-      <c r="B278">
+      <c r="C278">
+        <v>3.2</v>
+      </c>
+      <c r="D278">
         <v>0.72</v>
       </c>
-      <c r="D278">
-        <v>3.2</v>
-      </c>
-      <c r="F278">
-        <v>3.2</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>leather trousers</t>
         </is>
@@ -6551,16 +5364,13 @@
           <t>nachtschrank</t>
         </is>
       </c>
-      <c r="B279">
+      <c r="C279">
+        <v>3.2</v>
+      </c>
+      <c r="D279">
         <v>0.08</v>
       </c>
-      <c r="D279">
-        <v>3.2</v>
-      </c>
-      <c r="F279">
-        <v>3.2</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>bedside cabinet</t>
         </is>
@@ -6572,37 +5382,28 @@
           <t>schreibtisch</t>
         </is>
       </c>
-      <c r="B280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C280">
+        <v>3.2</v>
+      </c>
+      <c r="D280">
         <v>22.68</v>
       </c>
-      <c r="D280">
-        <v>3.2</v>
-      </c>
       <c r="E280">
-        <v>4.52</v>
-      </c>
-      <c r="F280">
-        <v>3.2</v>
+        <v>7.21</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
           <t>desk</t>
-        </is>
-      </c>
-      <c r="I280">
-        <v>7.21</v>
-      </c>
-      <c r="J280">
-        <v>5.24</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -6612,25 +5413,19 @@
           <t>axt</t>
         </is>
       </c>
-      <c r="B281">
+      <c r="C281">
+        <v>3.2</v>
+      </c>
+      <c r="D281">
         <v>3.68</v>
       </c>
-      <c r="D281">
-        <v>3.2</v>
-      </c>
-      <c r="F281">
-        <v>3.2</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="E281">
+        <v>5.21</v>
+      </c>
+      <c r="G281" t="inlineStr">
         <is>
           <t>axe</t>
         </is>
-      </c>
-      <c r="I281">
-        <v>5.21</v>
-      </c>
-      <c r="J281">
-        <v>6.36</v>
       </c>
     </row>
     <row r="282">
@@ -6639,16 +5434,13 @@
           <t>schlittschuhlaufen</t>
         </is>
       </c>
-      <c r="B282">
+      <c r="C282">
+        <v>3.2</v>
+      </c>
+      <c r="D282">
         <v>0.35</v>
       </c>
-      <c r="D282">
-        <v>3.2</v>
-      </c>
-      <c r="F282">
-        <v>3.2</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>ice skating</t>
         </is>
@@ -6660,16 +5452,13 @@
           <t>schuster</t>
         </is>
       </c>
-      <c r="B283">
+      <c r="C283">
+        <v>3.2</v>
+      </c>
+      <c r="D283">
         <v>5.84</v>
       </c>
-      <c r="D283">
-        <v>3.2</v>
-      </c>
-      <c r="F283">
-        <v>3.2</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>shoemaker</t>
         </is>
@@ -6684,10 +5473,7 @@
       <c r="C284">
         <v>3.21</v>
       </c>
-      <c r="F284">
-        <v>3.21</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>question</t>
         </is>
@@ -6702,10 +5488,7 @@
       <c r="C285">
         <v>3.21</v>
       </c>
-      <c r="F285">
-        <v>3.21</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>cockerel</t>
         </is>
@@ -6720,19 +5503,13 @@
       <c r="C286">
         <v>3.21</v>
       </c>
-      <c r="F286">
-        <v>3.21</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="E286">
+        <v>3.71</v>
+      </c>
+      <c r="G286" t="inlineStr">
         <is>
           <t>cheese</t>
         </is>
-      </c>
-      <c r="I286">
-        <v>3.71</v>
-      </c>
-      <c r="J286">
-        <v>4.3</v>
       </c>
     </row>
     <row r="287">
@@ -6744,10 +5521,7 @@
       <c r="C287">
         <v>3.21</v>
       </c>
-      <c r="F287">
-        <v>3.21</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>noon</t>
         </is>
@@ -6762,10 +5536,7 @@
       <c r="C288">
         <v>3.21</v>
       </c>
-      <c r="F288">
-        <v>3.21</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>police</t>
         </is>
@@ -6780,10 +5551,7 @@
       <c r="C289">
         <v>3.21</v>
       </c>
-      <c r="F289">
-        <v>3.21</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>bad</t>
         </is>
@@ -6798,10 +5566,7 @@
       <c r="C290">
         <v>3.21</v>
       </c>
-      <c r="F290">
-        <v>3.21</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>sit down</t>
         </is>
@@ -6816,10 +5581,7 @@
       <c r="C291">
         <v>3.21</v>
       </c>
-      <c r="F291">
-        <v>3.21</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>great</t>
         </is>
@@ -6834,19 +5596,13 @@
       <c r="C292">
         <v>3.21</v>
       </c>
-      <c r="F292">
-        <v>3.21</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="E292">
+        <v>1.84</v>
+      </c>
+      <c r="G292" t="inlineStr">
         <is>
           <t>clock</t>
         </is>
-      </c>
-      <c r="I292">
-        <v>1.84</v>
-      </c>
-      <c r="J292">
-        <v>4.52</v>
       </c>
     </row>
     <row r="293">
@@ -6855,19 +5611,13 @@
           <t>wurm</t>
         </is>
       </c>
-      <c r="B293">
-        <v>9.48</v>
-      </c>
       <c r="C293">
         <v>3.21</v>
       </c>
       <c r="D293">
-        <v>2.3</v>
-      </c>
-      <c r="F293">
-        <v>3.21</v>
-      </c>
-      <c r="H293" t="inlineStr">
+        <v>9.48</v>
+      </c>
+      <c r="G293" t="inlineStr">
         <is>
           <t>worm</t>
         </is>
@@ -6882,10 +5632,7 @@
       <c r="C294">
         <v>3.23</v>
       </c>
-      <c r="F294">
-        <v>3.23</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>sky</t>
         </is>
@@ -6900,19 +5647,13 @@
       <c r="C295">
         <v>3.23</v>
       </c>
-      <c r="F295">
-        <v>3.23</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="E295">
+        <v>4.21</v>
+      </c>
+      <c r="G295" t="inlineStr">
         <is>
           <t>swing</t>
         </is>
-      </c>
-      <c r="I295">
-        <v>4.21</v>
-      </c>
-      <c r="J295">
-        <v>4.54</v>
       </c>
     </row>
     <row r="296">
@@ -6921,19 +5662,13 @@
           <t>sessel</t>
         </is>
       </c>
-      <c r="B296">
-        <v>17.25</v>
-      </c>
       <c r="C296">
         <v>3.23</v>
       </c>
       <c r="D296">
-        <v>2.2</v>
-      </c>
-      <c r="F296">
-        <v>3.23</v>
-      </c>
-      <c r="H296" t="inlineStr">
+        <v>17.25</v>
+      </c>
+      <c r="G296" t="inlineStr">
         <is>
           <t>armchair</t>
         </is>
@@ -6945,25 +5680,22 @@
           <t>flugzeug</t>
         </is>
       </c>
-      <c r="E297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C297">
         <v>3.24</v>
       </c>
-      <c r="F297">
-        <v>3.24</v>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
           <t>airplane</t>
-        </is>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -6973,25 +5705,22 @@
           <t>umrühren</t>
         </is>
       </c>
-      <c r="E298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C298">
         <v>3.24</v>
       </c>
-      <c r="F298">
-        <v>3.24</v>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
           <t>stir</t>
-        </is>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -7001,28 +5730,19 @@
           <t>bürste</t>
         </is>
       </c>
-      <c r="B299">
-        <v>4.16</v>
-      </c>
       <c r="C299">
         <v>3.24</v>
       </c>
       <c r="D299">
-        <v>2.05</v>
-      </c>
-      <c r="F299">
-        <v>3.24</v>
-      </c>
-      <c r="H299" t="inlineStr">
+        <v>4.16</v>
+      </c>
+      <c r="E299">
+        <v>1.95</v>
+      </c>
+      <c r="G299" t="inlineStr">
         <is>
           <t>brush</t>
         </is>
-      </c>
-      <c r="I299">
-        <v>1.95</v>
-      </c>
-      <c r="J299">
-        <v>4.12</v>
       </c>
     </row>
     <row r="300">
@@ -7034,10 +5754,7 @@
       <c r="C300">
         <v>3.24</v>
       </c>
-      <c r="F300">
-        <v>3.24</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>present</t>
         </is>
@@ -7052,10 +5769,7 @@
       <c r="C301">
         <v>3.24</v>
       </c>
-      <c r="F301">
-        <v>3.24</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>help</t>
         </is>
@@ -7070,10 +5784,7 @@
       <c r="C302">
         <v>3.24</v>
       </c>
-      <c r="F302">
-        <v>3.24</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>knee</t>
         </is>
@@ -7088,19 +5799,13 @@
       <c r="C303">
         <v>3.24</v>
       </c>
-      <c r="F303">
-        <v>3.24</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="E303">
+        <v>2.09</v>
+      </c>
+      <c r="G303" t="inlineStr">
         <is>
           <t>cup</t>
         </is>
-      </c>
-      <c r="I303">
-        <v>2.09</v>
-      </c>
-      <c r="J303">
-        <v>3.39</v>
       </c>
     </row>
     <row r="304">
@@ -7112,10 +5817,7 @@
       <c r="C304">
         <v>3.24</v>
       </c>
-      <c r="F304">
-        <v>3.24</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>dry</t>
         </is>
@@ -7127,28 +5829,19 @@
           <t>arzt</t>
         </is>
       </c>
-      <c r="B305">
-        <v>122.89</v>
-      </c>
       <c r="C305">
         <v>3.25</v>
       </c>
       <c r="D305">
-        <v>2.55</v>
-      </c>
-      <c r="F305">
-        <v>3.25</v>
-      </c>
-      <c r="H305" t="inlineStr">
+        <v>122.89</v>
+      </c>
+      <c r="E305">
+        <v>3.71</v>
+      </c>
+      <c r="G305" t="inlineStr">
         <is>
           <t>doctor</t>
         </is>
-      </c>
-      <c r="I305">
-        <v>3.71</v>
-      </c>
-      <c r="J305">
-        <v>4.38</v>
       </c>
     </row>
     <row r="306">
@@ -7160,10 +5853,7 @@
       <c r="C306">
         <v>3.25</v>
       </c>
-      <c r="F306">
-        <v>3.25</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>lay</t>
         </is>
@@ -7175,28 +5865,22 @@
           <t>treppe</t>
         </is>
       </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C307">
         <v>3.25</v>
       </c>
-      <c r="E307">
-        <v>2.29</v>
-      </c>
-      <c r="F307">
-        <v>3.25</v>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
           <t>stairs</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -7206,28 +5890,19 @@
           <t>zug</t>
         </is>
       </c>
-      <c r="B308">
-        <v>125.3</v>
-      </c>
       <c r="C308">
         <v>3.25</v>
       </c>
       <c r="D308">
-        <v>1.85</v>
-      </c>
-      <c r="F308">
-        <v>3.25</v>
-      </c>
-      <c r="H308" t="inlineStr">
+        <v>125.3</v>
+      </c>
+      <c r="E308">
+        <v>2.09</v>
+      </c>
+      <c r="G308" t="inlineStr">
         <is>
           <t>train</t>
         </is>
-      </c>
-      <c r="I308">
-        <v>2.09</v>
-      </c>
-      <c r="J308">
-        <v>5.53</v>
       </c>
     </row>
     <row r="309">
@@ -7239,10 +5914,7 @@
       <c r="C309">
         <v>3.25</v>
       </c>
-      <c r="F309">
-        <v>3.25</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>rusk</t>
         </is>
@@ -7254,25 +5926,19 @@
           <t>seepferdchen</t>
         </is>
       </c>
-      <c r="B310">
+      <c r="C310">
+        <v>3.25</v>
+      </c>
+      <c r="D310">
         <v>0.29</v>
       </c>
-      <c r="D310">
-        <v>3.25</v>
-      </c>
-      <c r="F310">
-        <v>3.25</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="E310">
+        <v>7.21</v>
+      </c>
+      <c r="G310" t="inlineStr">
         <is>
           <t>seahorse</t>
         </is>
-      </c>
-      <c r="I310">
-        <v>7.21</v>
-      </c>
-      <c r="J310">
-        <v>5.83</v>
       </c>
     </row>
     <row r="311">
@@ -7281,16 +5947,13 @@
           <t>fink</t>
         </is>
       </c>
-      <c r="B311">
+      <c r="C311">
+        <v>3.25</v>
+      </c>
+      <c r="D311">
         <v>2.04</v>
       </c>
-      <c r="D311">
-        <v>3.25</v>
-      </c>
-      <c r="F311">
-        <v>3.25</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>finch</t>
         </is>
@@ -7302,16 +5965,13 @@
           <t>motorrad</t>
         </is>
       </c>
-      <c r="B312">
+      <c r="C312">
+        <v>3.25</v>
+      </c>
+      <c r="D312">
         <v>4.97</v>
       </c>
-      <c r="D312">
-        <v>3.25</v>
-      </c>
-      <c r="F312">
-        <v>3.25</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>motorcycle</t>
         </is>
@@ -7323,16 +5983,13 @@
           <t>segelschiff</t>
         </is>
       </c>
-      <c r="B313">
+      <c r="C313">
+        <v>3.25</v>
+      </c>
+      <c r="D313">
         <v>1.83</v>
       </c>
-      <c r="D313">
-        <v>3.25</v>
-      </c>
-      <c r="F313">
-        <v>3.25</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>sailing ship</t>
         </is>
@@ -7344,16 +6001,13 @@
           <t>gartenstuhl</t>
         </is>
       </c>
-      <c r="B314">
+      <c r="C314">
+        <v>3.25</v>
+      </c>
+      <c r="D314">
         <v>0.39</v>
       </c>
-      <c r="D314">
-        <v>3.25</v>
-      </c>
-      <c r="F314">
-        <v>3.25</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>garden chair</t>
         </is>
@@ -7365,16 +6019,13 @@
           <t>schuhschrank</t>
         </is>
       </c>
-      <c r="B315">
+      <c r="C315">
+        <v>3.25</v>
+      </c>
+      <c r="D315">
         <v>0.04</v>
       </c>
-      <c r="D315">
-        <v>3.25</v>
-      </c>
-      <c r="F315">
-        <v>3.25</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>shoe cupboard</t>
         </is>
@@ -7386,16 +6037,13 @@
           <t>klettern</t>
         </is>
       </c>
-      <c r="B316">
+      <c r="C316">
+        <v>3.25</v>
+      </c>
+      <c r="D316">
         <v>1.02</v>
       </c>
-      <c r="D316">
-        <v>3.25</v>
-      </c>
-      <c r="F316">
-        <v>3.25</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>climbing</t>
         </is>
@@ -7407,16 +6055,13 @@
           <t>schornsteinfeger</t>
         </is>
       </c>
-      <c r="B317">
+      <c r="C317">
+        <v>3.25</v>
+      </c>
+      <c r="D317">
         <v>0.92</v>
       </c>
-      <c r="D317">
-        <v>3.25</v>
-      </c>
-      <c r="F317">
-        <v>3.25</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>chimney sweep</t>
         </is>
@@ -7428,16 +6073,13 @@
           <t>handwerker</t>
         </is>
       </c>
-      <c r="B318">
+      <c r="C318">
+        <v>3.25</v>
+      </c>
+      <c r="D318">
         <v>14</v>
       </c>
-      <c r="D318">
-        <v>3.25</v>
-      </c>
-      <c r="F318">
-        <v>3.25</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>craftsman</t>
         </is>
@@ -7452,10 +6094,7 @@
       <c r="C319">
         <v>3.26</v>
       </c>
-      <c r="F319">
-        <v>3.26</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>answer</t>
         </is>
@@ -7470,10 +6109,7 @@
       <c r="C320">
         <v>3.26</v>
       </c>
-      <c r="F320">
-        <v>3.26</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>picture</t>
         </is>
@@ -7488,10 +6124,7 @@
       <c r="C321">
         <v>3.26</v>
       </c>
-      <c r="F321">
-        <v>3.26</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>be glad</t>
         </is>
@@ -7506,10 +6139,7 @@
       <c r="C322">
         <v>3.26</v>
       </c>
-      <c r="F322">
-        <v>3.26</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>spit</t>
         </is>
@@ -7524,10 +6154,7 @@
       <c r="C323">
         <v>3.27</v>
       </c>
-      <c r="F323">
-        <v>3.27</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>butter</t>
         </is>
@@ -7542,10 +6169,7 @@
       <c r="C324">
         <v>3.27</v>
       </c>
-      <c r="F324">
-        <v>3.27</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>bucket</t>
         </is>
@@ -7560,10 +6184,7 @@
       <c r="C325">
         <v>3.27</v>
       </c>
-      <c r="F325">
-        <v>3.27</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>stop</t>
         </is>
@@ -7575,28 +6196,19 @@
           <t>eule</t>
         </is>
       </c>
-      <c r="B326">
-        <v>3.32</v>
-      </c>
       <c r="C326">
         <v>3.28</v>
       </c>
       <c r="D326">
-        <v>2.75</v>
-      </c>
-      <c r="F326">
-        <v>3.28</v>
-      </c>
-      <c r="H326" t="inlineStr">
+        <v>3.32</v>
+      </c>
+      <c r="E326">
+        <v>3.21</v>
+      </c>
+      <c r="G326" t="inlineStr">
         <is>
           <t>owl</t>
         </is>
-      </c>
-      <c r="I326">
-        <v>3.21</v>
-      </c>
-      <c r="J326">
-        <v>5.46</v>
       </c>
     </row>
     <row r="327">
@@ -7608,19 +6220,13 @@
       <c r="C327">
         <v>3.28</v>
       </c>
-      <c r="F327">
-        <v>3.28</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="E327">
+        <v>3.21</v>
+      </c>
+      <c r="G327" t="inlineStr">
         <is>
           <t>basket</t>
         </is>
-      </c>
-      <c r="I327">
-        <v>3.21</v>
-      </c>
-      <c r="J327">
-        <v>5.65</v>
       </c>
     </row>
     <row r="328">
@@ -7632,10 +6238,7 @@
       <c r="C328">
         <v>3.28</v>
       </c>
-      <c r="F328">
-        <v>3.28</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>look for</t>
         </is>
@@ -7650,19 +6253,13 @@
       <c r="C329">
         <v>3.29</v>
       </c>
-      <c r="F329">
-        <v>3.29</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="E329">
+        <v>3.71</v>
+      </c>
+      <c r="G329" t="inlineStr">
         <is>
           <t>glass</t>
         </is>
-      </c>
-      <c r="I329">
-        <v>3.71</v>
-      </c>
-      <c r="J329">
-        <v>4.78</v>
       </c>
     </row>
     <row r="330">
@@ -7674,10 +6271,7 @@
       <c r="C330">
         <v>3.29</v>
       </c>
-      <c r="F330">
-        <v>3.29</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>take</t>
         </is>
@@ -7692,10 +6286,7 @@
       <c r="C331">
         <v>3.29</v>
       </c>
-      <c r="F331">
-        <v>3.29</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>give as a present</t>
         </is>
@@ -7707,34 +6298,25 @@
           <t>stern</t>
         </is>
       </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C332">
         <v>3.29</v>
       </c>
       <c r="E332">
-        <v>2.67</v>
-      </c>
-      <c r="F332">
-        <v>3.29</v>
+        <v>3.21</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
           <t>star</t>
-        </is>
-      </c>
-      <c r="I332">
-        <v>3.21</v>
-      </c>
-      <c r="J332">
-        <v>4.15</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -7747,10 +6329,7 @@
       <c r="C333">
         <v>3.3</v>
       </c>
-      <c r="F333">
-        <v>3.3</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>aunt</t>
         </is>
@@ -7765,10 +6344,7 @@
       <c r="C334">
         <v>3.3</v>
       </c>
-      <c r="F334">
-        <v>3.3</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>room</t>
         </is>
@@ -7780,16 +6356,13 @@
           <t>regenjacke</t>
         </is>
       </c>
-      <c r="B335">
+      <c r="C335">
+        <v>3.3</v>
+      </c>
+      <c r="D335">
         <v>0.01</v>
       </c>
-      <c r="D335">
-        <v>3.3</v>
-      </c>
-      <c r="F335">
-        <v>3.3</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>raincoat</t>
         </is>
@@ -7801,16 +6374,13 @@
           <t>liegestuhl</t>
         </is>
       </c>
-      <c r="B336">
+      <c r="C336">
+        <v>3.3</v>
+      </c>
+      <c r="D336">
         <v>1.92</v>
       </c>
-      <c r="D336">
-        <v>3.3</v>
-      </c>
-      <c r="F336">
-        <v>3.3</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>deckchair</t>
         </is>
@@ -7822,16 +6392,13 @@
           <t>rudern</t>
         </is>
       </c>
-      <c r="B337">
+      <c r="C337">
+        <v>3.3</v>
+      </c>
+      <c r="D337">
         <v>0.05</v>
       </c>
-      <c r="D337">
-        <v>3.3</v>
-      </c>
-      <c r="F337">
-        <v>3.3</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>rowing</t>
         </is>
@@ -7843,19 +6410,13 @@
           <t>gans</t>
         </is>
       </c>
-      <c r="B338">
-        <v>9.640000000000001</v>
-      </c>
       <c r="C338">
         <v>3.31</v>
       </c>
       <c r="D338">
-        <v>1.9</v>
-      </c>
-      <c r="F338">
-        <v>3.31</v>
-      </c>
-      <c r="H338" t="inlineStr">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="G338" t="inlineStr">
         <is>
           <t>goose</t>
         </is>
@@ -7867,19 +6428,13 @@
           <t>gans</t>
         </is>
       </c>
-      <c r="B339">
-        <v>9.640000000000001</v>
-      </c>
       <c r="C339">
         <v>3.31</v>
       </c>
       <c r="D339">
-        <v>1.75</v>
-      </c>
-      <c r="F339">
-        <v>3.31</v>
-      </c>
-      <c r="H339" t="inlineStr">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="G339" t="inlineStr">
         <is>
           <t>goose</t>
         </is>
@@ -7894,10 +6449,7 @@
       <c r="C340">
         <v>3.31</v>
       </c>
-      <c r="F340">
-        <v>3.31</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -7912,10 +6464,7 @@
       <c r="C341">
         <v>3.32</v>
       </c>
-      <c r="F341">
-        <v>3.32</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>away</t>
         </is>
@@ -7930,10 +6479,7 @@
       <c r="C342">
         <v>3.32</v>
       </c>
-      <c r="F342">
-        <v>3.32</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>live</t>
         </is>
@@ -7948,10 +6494,7 @@
       <c r="C343">
         <v>3.33</v>
       </c>
-      <c r="F343">
-        <v>3.33</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7966,10 +6509,7 @@
       <c r="C344">
         <v>3.35</v>
       </c>
-      <c r="F344">
-        <v>3.35</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>circle</t>
         </is>
@@ -7984,10 +6524,7 @@
       <c r="C345">
         <v>3.35</v>
       </c>
-      <c r="F345">
-        <v>3.35</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
